--- a/Resultados TCP Final.xlsx
+++ b/Resultados TCP Final.xlsx
@@ -4,26 +4,23 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="21075" windowHeight="10050" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="21075" windowHeight="10050" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="D" sheetId="4" r:id="rId1"/>
     <sheet name="C" sheetId="3" r:id="rId2"/>
     <sheet name="B" sheetId="2" r:id="rId3"/>
     <sheet name="A" sheetId="1" r:id="rId4"/>
-    <sheet name="lS" sheetId="5" r:id="rId5"/>
-    <sheet name="rS" sheetId="6" r:id="rId6"/>
-    <sheet name="S" sheetId="7" r:id="rId7"/>
-    <sheet name="SS" sheetId="8" r:id="rId8"/>
-    <sheet name="SSS" sheetId="9" r:id="rId9"/>
+    <sheet name="S" sheetId="7" r:id="rId5"/>
+    <sheet name="SS" sheetId="8" r:id="rId6"/>
+    <sheet name="SSS" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="72">
   <si>
     <t>instance</t>
   </si>
@@ -58,9 +55,6 @@
     <t>solved</t>
   </si>
   <si>
-    <t>steinc1</t>
-  </si>
-  <si>
     <t>steinc10</t>
   </si>
   <si>
@@ -91,34 +85,7 @@
     <t>steinc19</t>
   </si>
   <si>
-    <t>steinc2</t>
-  </si>
-  <si>
     <t>steinc20</t>
-  </si>
-  <si>
-    <t>steinc3</t>
-  </si>
-  <si>
-    <t>steinc4</t>
-  </si>
-  <si>
-    <t>steinc5</t>
-  </si>
-  <si>
-    <t>steinc6</t>
-  </si>
-  <si>
-    <t>steinc7</t>
-  </si>
-  <si>
-    <t>steinc8</t>
-  </si>
-  <si>
-    <t>steinc9</t>
-  </si>
-  <si>
-    <t>steind1</t>
   </si>
   <si>
     <t>steind10</t>
@@ -151,34 +118,7 @@
     <t>steind19</t>
   </si>
   <si>
-    <t>steind2</t>
-  </si>
-  <si>
     <t>steind20</t>
-  </si>
-  <si>
-    <t>steind3</t>
-  </si>
-  <si>
-    <t>steind4</t>
-  </si>
-  <si>
-    <t>steind5</t>
-  </si>
-  <si>
-    <t>steind6</t>
-  </si>
-  <si>
-    <t>steind7</t>
-  </si>
-  <si>
-    <t>steind8</t>
-  </si>
-  <si>
-    <t>steind9</t>
-  </si>
-  <si>
-    <t>steine1</t>
   </si>
   <si>
     <t>steine10</t>
@@ -211,31 +151,7 @@
     <t>steine19</t>
   </si>
   <si>
-    <t>steine2</t>
-  </si>
-  <si>
     <t>steine20</t>
-  </si>
-  <si>
-    <t>steine3</t>
-  </si>
-  <si>
-    <t>steine4</t>
-  </si>
-  <si>
-    <t>steine5</t>
-  </si>
-  <si>
-    <t>steine6</t>
-  </si>
-  <si>
-    <t>steine7</t>
-  </si>
-  <si>
-    <t>steine8</t>
-  </si>
-  <si>
-    <t>steine9</t>
   </si>
   <si>
     <t>to best</t>
@@ -687,7 +603,7 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="H1" t="s">
         <v>6</v>
@@ -707,7 +623,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="B2">
         <v>85</v>
@@ -745,7 +661,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="B3">
         <v>150</v>
@@ -783,7 +699,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="B4">
         <v>768</v>
@@ -821,7 +737,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="B5">
         <v>1090</v>
@@ -859,7 +775,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="B6">
         <v>1596</v>
@@ -897,7 +813,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="B7">
         <v>55</v>
@@ -935,7 +851,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="B8">
         <v>103</v>
@@ -973,7 +889,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="B9">
         <v>532</v>
@@ -1011,7 +927,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="B10">
         <v>725</v>
@@ -1049,7 +965,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <v>1101</v>
@@ -1087,7 +1003,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <v>32</v>
@@ -1125,7 +1041,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13">
         <v>46</v>
@@ -1163,7 +1079,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14">
         <v>259</v>
@@ -1201,7 +1117,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15">
         <v>330</v>
@@ -1239,7 +1155,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16">
         <v>568</v>
@@ -1277,7 +1193,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17">
         <v>11</v>
@@ -1315,7 +1231,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18">
         <v>18</v>
@@ -1353,7 +1269,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19">
         <v>113</v>
@@ -1391,7 +1307,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20">
         <v>147</v>
@@ -1429,7 +1345,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B21">
         <v>267</v>
@@ -1467,7 +1383,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="B22">
         <v>107</v>
@@ -1505,7 +1421,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="B23">
         <v>220</v>
@@ -1543,7 +1459,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="B24">
         <v>1624</v>
@@ -1581,7 +1497,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="B25">
         <v>1986</v>
@@ -1619,7 +1535,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="B26">
         <v>3298</v>
@@ -1657,7 +1573,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="B27">
         <v>70</v>
@@ -1695,7 +1611,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="B28">
         <v>108</v>
@@ -1733,7 +1649,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="B29">
         <v>1120</v>
@@ -1771,7 +1687,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="B30">
         <v>1490</v>
@@ -1809,7 +1725,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B31">
         <v>2146</v>
@@ -1847,7 +1763,7 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B32">
         <v>29</v>
@@ -1885,7 +1801,7 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B33">
         <v>42</v>
@@ -1923,7 +1839,7 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B34">
         <v>506</v>
@@ -1961,7 +1877,7 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B35">
         <v>677</v>
@@ -1999,7 +1915,7 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B36">
         <v>1133</v>
@@ -2037,7 +1953,7 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B37">
         <v>13</v>
@@ -2075,7 +1991,7 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B38">
         <v>23</v>
@@ -2113,7 +2029,7 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B39">
         <v>227</v>
@@ -2151,7 +2067,7 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B40">
         <v>317</v>
@@ -2189,7 +2105,7 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B41">
         <v>538</v>
@@ -2227,7 +2143,7 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="B42">
         <v>111</v>
@@ -2265,7 +2181,7 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="B43">
         <v>223</v>
@@ -2303,7 +2219,7 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="B44">
         <v>4211</v>
@@ -2341,7 +2257,7 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="B45">
         <v>5312</v>
@@ -2379,7 +2295,7 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="B46">
         <v>8276</v>
@@ -2417,7 +2333,7 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="B47">
         <v>73</v>
@@ -2455,7 +2371,7 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="B48">
         <v>148</v>
@@ -2493,7 +2409,7 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="B49">
         <v>2784</v>
@@ -2531,7 +2447,7 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="B50">
         <v>3806</v>
@@ -2569,7 +2485,7 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="B51">
         <v>5768</v>
@@ -2607,7 +2523,7 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="B52">
         <v>34</v>
@@ -2645,7 +2561,7 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="B53">
         <v>67</v>
@@ -2683,7 +2599,7 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="B54">
         <v>1344</v>
@@ -2721,7 +2637,7 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="B55">
         <v>1807</v>
@@ -2759,7 +2675,7 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="B56">
         <v>2858</v>
@@ -2797,7 +2713,7 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="B57">
         <v>15</v>
@@ -2835,7 +2751,7 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="B58">
         <v>25</v>
@@ -2873,7 +2789,7 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="B59">
         <v>592</v>
@@ -2911,7 +2827,7 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="B60">
         <v>779</v>
@@ -2949,7 +2865,7 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="B61">
         <v>1355</v>
@@ -3030,7 +2946,7 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="H1" t="s">
         <v>6</v>
@@ -3050,7 +2966,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="B2">
         <v>85</v>
@@ -3088,7 +3004,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="B3">
         <v>150</v>
@@ -3126,7 +3042,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="B4">
         <v>764</v>
@@ -3164,7 +3080,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="B5">
         <v>1086</v>
@@ -3202,7 +3118,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="B6">
         <v>1601</v>
@@ -3240,7 +3156,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="B7">
         <v>56</v>
@@ -3278,7 +3194,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="B8">
         <v>106</v>
@@ -3316,7 +3232,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="B9">
         <v>525</v>
@@ -3354,7 +3270,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="B10">
         <v>722</v>
@@ -3392,7 +3308,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <v>1115</v>
@@ -3430,7 +3346,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <v>32</v>
@@ -3468,7 +3384,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13">
         <v>46</v>
@@ -3506,7 +3422,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14">
         <v>260</v>
@@ -3544,7 +3460,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15">
         <v>326</v>
@@ -3582,7 +3498,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16">
         <v>563</v>
@@ -3620,7 +3536,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17">
         <v>11</v>
@@ -3658,7 +3574,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18">
         <v>18</v>
@@ -3696,7 +3612,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19">
         <v>113</v>
@@ -3734,7 +3650,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20">
         <v>147</v>
@@ -3772,7 +3688,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B21">
         <v>267</v>
@@ -3810,7 +3726,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="B22">
         <v>106</v>
@@ -3848,7 +3764,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="B23">
         <v>220</v>
@@ -3886,7 +3802,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="B24">
         <v>1644</v>
@@ -3924,7 +3840,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="B25">
         <v>1988</v>
@@ -3962,7 +3878,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="B26">
         <v>3308</v>
@@ -4000,7 +3916,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="B27">
         <v>69</v>
@@ -4038,7 +3954,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="B28">
         <v>103</v>
@@ -4076,7 +3992,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="B29">
         <v>1122</v>
@@ -4114,7 +4030,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="B30">
         <v>1491</v>
@@ -4152,7 +4068,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B31">
         <v>2151</v>
@@ -4190,7 +4106,7 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B32">
         <v>29</v>
@@ -4228,7 +4144,7 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B33">
         <v>42</v>
@@ -4266,7 +4182,7 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B34">
         <v>520</v>
@@ -4304,7 +4220,7 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B35">
         <v>677</v>
@@ -4342,7 +4258,7 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B36">
         <v>1137</v>
@@ -4380,7 +4296,7 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B37">
         <v>13</v>
@@ -4418,7 +4334,7 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B38">
         <v>23</v>
@@ -4456,7 +4372,7 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B39">
         <v>227</v>
@@ -4494,7 +4410,7 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B40">
         <v>316</v>
@@ -4532,7 +4448,7 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B41">
         <v>538</v>
@@ -4570,7 +4486,7 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="B42">
         <v>113</v>
@@ -4608,7 +4524,7 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="B43">
         <v>237</v>
@@ -4646,7 +4562,7 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="B44">
         <v>4220</v>
@@ -4684,7 +4600,7 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="B45">
         <v>5316</v>
@@ -4722,7 +4638,7 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="B46">
         <v>8251</v>
@@ -4760,7 +4676,7 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="B47">
         <v>73</v>
@@ -4798,7 +4714,7 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="B48">
         <v>150</v>
@@ -4836,7 +4752,7 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="B49">
         <v>2791</v>
@@ -4874,7 +4790,7 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="B50">
         <v>3812</v>
@@ -4912,7 +4828,7 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="B51">
         <v>5778</v>
@@ -4950,7 +4866,7 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="B52">
         <v>34</v>
@@ -4988,7 +4904,7 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="B53">
         <v>68</v>
@@ -5026,7 +4942,7 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="B54">
         <v>1360</v>
@@ -5064,7 +4980,7 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="B55">
         <v>1799</v>
@@ -5102,7 +5018,7 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="B56">
         <v>2868</v>
@@ -5140,7 +5056,7 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="B57">
         <v>17</v>
@@ -5178,7 +5094,7 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="B58">
         <v>25</v>
@@ -5216,7 +5132,7 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="B59">
         <v>606</v>
@@ -5254,7 +5170,7 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="B60">
         <v>797</v>
@@ -5292,7 +5208,7 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="B61">
         <v>1354</v>
@@ -5377,7 +5293,7 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="H1" t="s">
         <v>6</v>
@@ -5397,7 +5313,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="B2">
         <v>87</v>
@@ -5435,7 +5351,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="B3">
         <v>153</v>
@@ -5473,7 +5389,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="B4">
         <v>765</v>
@@ -5511,7 +5427,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="B5">
         <v>1084</v>
@@ -5549,7 +5465,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="B6">
         <v>1593</v>
@@ -5587,7 +5503,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="B7">
         <v>55</v>
@@ -5625,7 +5541,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="B8">
         <v>103</v>
@@ -5663,7 +5579,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="B9">
         <v>523</v>
@@ -5701,7 +5617,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="B10">
         <v>724</v>
@@ -5739,7 +5655,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <v>1105</v>
@@ -5777,7 +5693,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <v>32</v>
@@ -5815,7 +5731,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13">
         <v>46</v>
@@ -5853,7 +5769,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14">
         <v>260</v>
@@ -5891,7 +5807,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15">
         <v>327</v>
@@ -5929,7 +5845,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16">
         <v>557</v>
@@ -5967,7 +5883,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17">
         <v>13</v>
@@ -6005,7 +5921,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18">
         <v>20</v>
@@ -6043,7 +5959,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19">
         <v>115</v>
@@ -6081,7 +5997,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20">
         <v>150</v>
@@ -6119,7 +6035,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B21">
         <v>268</v>
@@ -6157,7 +6073,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="B22">
         <v>107</v>
@@ -6195,7 +6111,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="B23">
         <v>220</v>
@@ -6233,7 +6149,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="B24">
         <v>1622</v>
@@ -6271,7 +6187,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="B25">
         <v>1996</v>
@@ -6309,7 +6225,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="B26">
         <v>3295</v>
@@ -6347,7 +6263,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="B27">
         <v>72</v>
@@ -6385,7 +6301,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="B28">
         <v>103</v>
@@ -6423,7 +6339,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="B29">
         <v>1137</v>
@@ -6461,7 +6377,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="B30">
         <v>1516</v>
@@ -6499,7 +6415,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B31">
         <v>2155</v>
@@ -6537,7 +6453,7 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B32">
         <v>34</v>
@@ -6575,7 +6491,7 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B33">
         <v>43</v>
@@ -6613,7 +6529,7 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B34">
         <v>524</v>
@@ -6651,7 +6567,7 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B35">
         <v>679</v>
@@ -6689,7 +6605,7 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B36">
         <v>1134</v>
@@ -6727,7 +6643,7 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B37">
         <v>13</v>
@@ -6765,7 +6681,7 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B38">
         <v>25</v>
@@ -6803,7 +6719,7 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B39">
         <v>231</v>
@@ -6841,7 +6757,7 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B40">
         <v>323</v>
@@ -6879,7 +6795,7 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B41">
         <v>544</v>
@@ -6917,7 +6833,7 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="B42">
         <v>118</v>
@@ -6955,7 +6871,7 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="B43">
         <v>224</v>
@@ -6993,7 +6909,7 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="B44">
         <v>4212</v>
@@ -7031,7 +6947,7 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="B45">
         <v>5294</v>
@@ -7069,7 +6985,7 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="B46">
         <v>8254</v>
@@ -7107,7 +7023,7 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="B47">
         <v>73</v>
@@ -7145,7 +7061,7 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="B48">
         <v>150</v>
@@ -7183,7 +7099,7 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="B49">
         <v>2800</v>
@@ -7221,7 +7137,7 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="B50">
         <v>3815</v>
@@ -7259,7 +7175,7 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="B51">
         <v>5758</v>
@@ -7297,7 +7213,7 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="B52">
         <v>35</v>
@@ -7335,7 +7251,7 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="B53">
         <v>69</v>
@@ -7373,7 +7289,7 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="B54">
         <v>1375</v>
@@ -7411,7 +7327,7 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="B55">
         <v>1816</v>
@@ -7449,7 +7365,7 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="B56">
         <v>2879</v>
@@ -7487,7 +7403,7 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="B57">
         <v>15</v>
@@ -7525,7 +7441,7 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="B58">
         <v>25</v>
@@ -7563,7 +7479,7 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="B59">
         <v>603</v>
@@ -7601,7 +7517,7 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="B60">
         <v>791</v>
@@ -7639,7 +7555,7 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="B61">
         <v>1361</v>
@@ -7727,7 +7643,7 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="H1" t="s">
         <v>6</v>
@@ -7747,7 +7663,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="B2">
         <v>87</v>
@@ -7785,7 +7701,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="B3">
         <v>153</v>
@@ -7823,7 +7739,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="B4">
         <v>769</v>
@@ -7861,7 +7777,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="B5">
         <v>1088</v>
@@ -7899,7 +7815,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="B6">
         <v>1594</v>
@@ -7937,7 +7853,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="B7">
         <v>55</v>
@@ -7975,7 +7891,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="B8">
         <v>109</v>
@@ -8013,7 +7929,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="B9">
         <v>527</v>
@@ -8051,7 +7967,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="B10">
         <v>724</v>
@@ -8089,7 +8005,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <v>1113</v>
@@ -8127,7 +8043,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <v>34</v>
@@ -8165,7 +8081,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13">
         <v>53</v>
@@ -8203,7 +8119,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14">
         <v>273</v>
@@ -8241,7 +8157,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15">
         <v>331</v>
@@ -8279,7 +8195,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16">
         <v>558</v>
@@ -8317,7 +8233,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -8355,7 +8271,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18">
         <v>19</v>
@@ -8393,7 +8309,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19">
         <v>115</v>
@@ -8431,7 +8347,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20">
         <v>151</v>
@@ -8469,7 +8385,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B21">
         <v>269</v>
@@ -8507,7 +8423,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="B22">
         <v>107</v>
@@ -8545,7 +8461,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="B23">
         <v>233</v>
@@ -8583,7 +8499,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="B24">
         <v>1615</v>
@@ -8621,7 +8537,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="B25">
         <v>1986</v>
@@ -8659,7 +8575,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="B26">
         <v>3295</v>
@@ -8697,7 +8613,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="B27">
         <v>72</v>
@@ -8735,7 +8651,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="B28">
         <v>105</v>
@@ -8773,7 +8689,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="B29">
         <v>1120</v>
@@ -8811,7 +8727,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="B30">
         <v>1501</v>
@@ -8849,7 +8765,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B31">
         <v>2158</v>
@@ -8887,7 +8803,7 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B32">
         <v>38</v>
@@ -8925,7 +8841,7 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B33">
         <v>44</v>
@@ -8963,7 +8879,7 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B34">
         <v>531</v>
@@ -9001,7 +8917,7 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B35">
         <v>687</v>
@@ -9039,7 +8955,7 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B36">
         <v>1144</v>
@@ -9077,7 +8993,7 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B37">
         <v>18</v>
@@ -9115,7 +9031,7 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B38">
         <v>24</v>
@@ -9153,7 +9069,7 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B39">
         <v>231</v>
@@ -9191,7 +9107,7 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B40">
         <v>321</v>
@@ -9229,7 +9145,7 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B41">
         <v>545</v>
@@ -9267,7 +9183,7 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="B42">
         <v>118</v>
@@ -9305,7 +9221,7 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="B43">
         <v>228</v>
@@ -9343,7 +9259,7 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="B44">
         <v>4211</v>
@@ -9381,7 +9297,7 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="B45">
         <v>5298</v>
@@ -9419,7 +9335,7 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="B46">
         <v>8257</v>
@@ -9457,7 +9373,7 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="B47">
         <v>73</v>
@@ -9495,7 +9411,7 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="B48">
         <v>159</v>
@@ -9533,7 +9449,7 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="B49">
         <v>2790</v>
@@ -9571,7 +9487,7 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="B50">
         <v>3820</v>
@@ -9609,7 +9525,7 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="B51">
         <v>5797</v>
@@ -9647,7 +9563,7 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="B52">
         <v>49</v>
@@ -9685,7 +9601,7 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="B53">
         <v>70</v>
@@ -9723,7 +9639,7 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="B54">
         <v>1351</v>
@@ -9761,7 +9677,7 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="B55">
         <v>1835</v>
@@ -9799,7 +9715,7 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="B56">
         <v>2864</v>
@@ -9837,7 +9753,7 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="B57">
         <v>16</v>
@@ -9875,7 +9791,7 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="B58">
         <v>26</v>
@@ -9913,7 +9829,7 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="B59">
         <v>606</v>
@@ -9951,7 +9867,7 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="B60">
         <v>794</v>
@@ -9989,7 +9905,7 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="B61">
         <v>1369</v>
@@ -10045,4318 +9961,6 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K62"/>
-  <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="K62" sqref="K62"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2">
-        <v>87</v>
-      </c>
-      <c r="C2">
-        <v>87</v>
-      </c>
-      <c r="D2">
-        <v>87</v>
-      </c>
-      <c r="E2">
-        <v>87</v>
-      </c>
-      <c r="F2">
-        <v>1201.5</v>
-      </c>
-      <c r="G2">
-        <v>12</v>
-      </c>
-      <c r="H2">
-        <v>12</v>
-      </c>
-      <c r="I2">
-        <v>3</v>
-      </c>
-      <c r="J2">
-        <v>3</v>
-      </c>
-      <c r="K2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3">
-        <v>1125</v>
-      </c>
-      <c r="C3">
-        <v>1147</v>
-      </c>
-      <c r="D3">
-        <v>1135.8</v>
-      </c>
-      <c r="E3">
-        <v>1135</v>
-      </c>
-      <c r="F3">
-        <v>7668.6</v>
-      </c>
-      <c r="G3">
-        <v>29</v>
-      </c>
-      <c r="H3">
-        <v>35</v>
-      </c>
-      <c r="I3">
-        <v>39</v>
-      </c>
-      <c r="J3">
-        <v>42</v>
-      </c>
-      <c r="K3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4">
-        <v>35</v>
-      </c>
-      <c r="C4">
-        <v>41</v>
-      </c>
-      <c r="D4">
-        <v>36.4</v>
-      </c>
-      <c r="E4">
-        <v>35.5</v>
-      </c>
-      <c r="F4">
-        <v>5178.2</v>
-      </c>
-      <c r="G4">
-        <v>3</v>
-      </c>
-      <c r="H4">
-        <v>4</v>
-      </c>
-      <c r="I4">
-        <v>3</v>
-      </c>
-      <c r="J4">
-        <v>3</v>
-      </c>
-      <c r="K4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5">
-        <v>53</v>
-      </c>
-      <c r="C5">
-        <v>70</v>
-      </c>
-      <c r="D5">
-        <v>64</v>
-      </c>
-      <c r="E5">
-        <v>65.5</v>
-      </c>
-      <c r="F5">
-        <v>5247</v>
-      </c>
-      <c r="G5">
-        <v>6</v>
-      </c>
-      <c r="H5">
-        <v>7</v>
-      </c>
-      <c r="I5">
-        <v>3</v>
-      </c>
-      <c r="J5">
-        <v>5</v>
-      </c>
-      <c r="K5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6">
-        <v>274</v>
-      </c>
-      <c r="C6">
-        <v>300</v>
-      </c>
-      <c r="D6">
-        <v>287.2</v>
-      </c>
-      <c r="E6">
-        <v>287.5</v>
-      </c>
-      <c r="F6">
-        <v>6183.9</v>
-      </c>
-      <c r="G6">
-        <v>21</v>
-      </c>
-      <c r="H6">
-        <v>29</v>
-      </c>
-      <c r="I6">
-        <v>26</v>
-      </c>
-      <c r="J6">
-        <v>33</v>
-      </c>
-      <c r="K6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7">
-        <v>338</v>
-      </c>
-      <c r="C7">
-        <v>364</v>
-      </c>
-      <c r="D7">
-        <v>348.6</v>
-      </c>
-      <c r="E7">
-        <v>345.5</v>
-      </c>
-      <c r="F7">
-        <v>6772.2</v>
-      </c>
-      <c r="G7">
-        <v>19</v>
-      </c>
-      <c r="H7">
-        <v>28</v>
-      </c>
-      <c r="I7">
-        <v>28</v>
-      </c>
-      <c r="J7">
-        <v>36</v>
-      </c>
-      <c r="K7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8">
-        <v>567</v>
-      </c>
-      <c r="C8">
-        <v>580</v>
-      </c>
-      <c r="D8">
-        <v>571.6</v>
-      </c>
-      <c r="E8">
-        <v>570</v>
-      </c>
-      <c r="F8">
-        <v>8165.2</v>
-      </c>
-      <c r="G8">
-        <v>23</v>
-      </c>
-      <c r="H8">
-        <v>32</v>
-      </c>
-      <c r="I8">
-        <v>34</v>
-      </c>
-      <c r="J8">
-        <v>40</v>
-      </c>
-      <c r="K8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9">
-        <v>17</v>
-      </c>
-      <c r="C9">
-        <v>25</v>
-      </c>
-      <c r="D9">
-        <v>20</v>
-      </c>
-      <c r="E9">
-        <v>18.5</v>
-      </c>
-      <c r="F9">
-        <v>4984.3</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>2</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <v>2</v>
-      </c>
-      <c r="K9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10">
-        <v>23</v>
-      </c>
-      <c r="C10">
-        <v>30</v>
-      </c>
-      <c r="D10">
-        <v>27.1</v>
-      </c>
-      <c r="E10">
-        <v>26.5</v>
-      </c>
-      <c r="F10">
-        <v>5451.5</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>2</v>
-      </c>
-      <c r="I10">
-        <v>2</v>
-      </c>
-      <c r="J10">
-        <v>4</v>
-      </c>
-      <c r="K10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11">
-        <v>116</v>
-      </c>
-      <c r="C11">
-        <v>125</v>
-      </c>
-      <c r="D11">
-        <v>120.7</v>
-      </c>
-      <c r="E11">
-        <v>121</v>
-      </c>
-      <c r="F11">
-        <v>6216.2</v>
-      </c>
-      <c r="G11">
-        <v>4</v>
-      </c>
-      <c r="H11">
-        <v>9</v>
-      </c>
-      <c r="I11">
-        <v>17</v>
-      </c>
-      <c r="J11">
-        <v>23</v>
-      </c>
-      <c r="K11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12">
-        <v>152</v>
-      </c>
-      <c r="C12">
-        <v>160</v>
-      </c>
-      <c r="D12">
-        <v>155</v>
-      </c>
-      <c r="E12">
-        <v>154</v>
-      </c>
-      <c r="F12">
-        <v>6622.2</v>
-      </c>
-      <c r="G12">
-        <v>3</v>
-      </c>
-      <c r="H12">
-        <v>4</v>
-      </c>
-      <c r="I12">
-        <v>22</v>
-      </c>
-      <c r="J12">
-        <v>28</v>
-      </c>
-      <c r="K12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13">
-        <v>150</v>
-      </c>
-      <c r="C13">
-        <v>164</v>
-      </c>
-      <c r="D13">
-        <v>156.22200000000001</v>
-      </c>
-      <c r="E13">
-        <v>155</v>
-      </c>
-      <c r="F13">
-        <v>3309.44</v>
-      </c>
-      <c r="G13">
-        <v>14</v>
-      </c>
-      <c r="H13">
-        <v>15</v>
-      </c>
-      <c r="I13">
-        <v>3</v>
-      </c>
-      <c r="J13">
-        <v>3</v>
-      </c>
-      <c r="K13">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14">
-        <v>271</v>
-      </c>
-      <c r="C14">
-        <v>278</v>
-      </c>
-      <c r="D14">
-        <v>274.77800000000002</v>
-      </c>
-      <c r="E14">
-        <v>274</v>
-      </c>
-      <c r="F14">
-        <v>7725</v>
-      </c>
-      <c r="G14">
-        <v>4</v>
-      </c>
-      <c r="H14">
-        <v>5</v>
-      </c>
-      <c r="I14">
-        <v>13</v>
-      </c>
-      <c r="J14">
-        <v>20</v>
-      </c>
-      <c r="K14">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15">
-        <v>772</v>
-      </c>
-      <c r="C15">
-        <v>795</v>
-      </c>
-      <c r="D15">
-        <v>785.2</v>
-      </c>
-      <c r="E15">
-        <v>788</v>
-      </c>
-      <c r="F15">
-        <v>4231.3999999999996</v>
-      </c>
-      <c r="G15">
-        <v>46</v>
-      </c>
-      <c r="H15">
-        <v>52</v>
-      </c>
-      <c r="I15">
-        <v>27</v>
-      </c>
-      <c r="J15">
-        <v>31</v>
-      </c>
-      <c r="K15">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16">
-        <v>1098</v>
-      </c>
-      <c r="C16">
-        <v>1131</v>
-      </c>
-      <c r="D16">
-        <v>1106.3</v>
-      </c>
-      <c r="E16">
-        <v>1101</v>
-      </c>
-      <c r="F16">
-        <v>4855</v>
-      </c>
-      <c r="G16">
-        <v>54</v>
-      </c>
-      <c r="H16">
-        <v>62</v>
-      </c>
-      <c r="I16">
-        <v>39</v>
-      </c>
-      <c r="J16">
-        <v>43</v>
-      </c>
-      <c r="K16">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17">
-        <v>1601</v>
-      </c>
-      <c r="C17">
-        <v>1618</v>
-      </c>
-      <c r="D17">
-        <v>1608</v>
-      </c>
-      <c r="E17">
-        <v>1607.5</v>
-      </c>
-      <c r="F17">
-        <v>5979</v>
-      </c>
-      <c r="G17">
-        <v>49</v>
-      </c>
-      <c r="H17">
-        <v>54</v>
-      </c>
-      <c r="I17">
-        <v>38</v>
-      </c>
-      <c r="J17">
-        <v>42</v>
-      </c>
-      <c r="K17">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18">
-        <v>55</v>
-      </c>
-      <c r="C18">
-        <v>55</v>
-      </c>
-      <c r="D18">
-        <v>55</v>
-      </c>
-      <c r="E18">
-        <v>55</v>
-      </c>
-      <c r="F18">
-        <v>2758.1</v>
-      </c>
-      <c r="G18">
-        <v>6</v>
-      </c>
-      <c r="H18">
-        <v>6</v>
-      </c>
-      <c r="I18">
-        <v>2</v>
-      </c>
-      <c r="J18">
-        <v>2</v>
-      </c>
-      <c r="K18">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19">
-        <v>107</v>
-      </c>
-      <c r="C19">
-        <v>116</v>
-      </c>
-      <c r="D19">
-        <v>112.667</v>
-      </c>
-      <c r="E19">
-        <v>115</v>
-      </c>
-      <c r="F19">
-        <v>4699.5600000000004</v>
-      </c>
-      <c r="G19">
-        <v>10</v>
-      </c>
-      <c r="H19">
-        <v>11</v>
-      </c>
-      <c r="I19">
-        <v>4</v>
-      </c>
-      <c r="J19">
-        <v>6</v>
-      </c>
-      <c r="K19">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20">
-        <v>541</v>
-      </c>
-      <c r="C20">
-        <v>579</v>
-      </c>
-      <c r="D20">
-        <v>564.4</v>
-      </c>
-      <c r="E20">
-        <v>567</v>
-      </c>
-      <c r="F20">
-        <v>5618.8</v>
-      </c>
-      <c r="G20">
-        <v>38</v>
-      </c>
-      <c r="H20">
-        <v>46</v>
-      </c>
-      <c r="I20">
-        <v>24</v>
-      </c>
-      <c r="J20">
-        <v>33</v>
-      </c>
-      <c r="K20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21">
-        <v>744</v>
-      </c>
-      <c r="C21">
-        <v>765</v>
-      </c>
-      <c r="D21">
-        <v>754.8</v>
-      </c>
-      <c r="E21">
-        <v>754</v>
-      </c>
-      <c r="F21">
-        <v>6106.8</v>
-      </c>
-      <c r="G21">
-        <v>40</v>
-      </c>
-      <c r="H21">
-        <v>45</v>
-      </c>
-      <c r="I21">
-        <v>39</v>
-      </c>
-      <c r="J21">
-        <v>43</v>
-      </c>
-      <c r="K21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22">
-        <v>119</v>
-      </c>
-      <c r="C22">
-        <v>127</v>
-      </c>
-      <c r="D22">
-        <v>125.889</v>
-      </c>
-      <c r="E22">
-        <v>127</v>
-      </c>
-      <c r="F22">
-        <v>10753</v>
-      </c>
-      <c r="G22">
-        <v>12</v>
-      </c>
-      <c r="H22">
-        <v>13</v>
-      </c>
-      <c r="I22">
-        <v>2</v>
-      </c>
-      <c r="J22">
-        <v>3</v>
-      </c>
-      <c r="K22">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23">
-        <v>2176</v>
-      </c>
-      <c r="C23">
-        <v>2238</v>
-      </c>
-      <c r="D23">
-        <v>2208.3000000000002</v>
-      </c>
-      <c r="E23">
-        <v>2206.5</v>
-      </c>
-      <c r="F23">
-        <v>31150.3</v>
-      </c>
-      <c r="G23">
-        <v>67</v>
-      </c>
-      <c r="H23">
-        <v>79</v>
-      </c>
-      <c r="I23">
-        <v>72</v>
-      </c>
-      <c r="J23">
-        <v>82</v>
-      </c>
-      <c r="K23">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24">
-        <v>37</v>
-      </c>
-      <c r="C24">
-        <v>48</v>
-      </c>
-      <c r="D24">
-        <v>39</v>
-      </c>
-      <c r="E24">
-        <v>37</v>
-      </c>
-      <c r="F24">
-        <v>17825.8</v>
-      </c>
-      <c r="G24">
-        <v>3</v>
-      </c>
-      <c r="H24">
-        <v>5</v>
-      </c>
-      <c r="I24">
-        <v>1</v>
-      </c>
-      <c r="J24">
-        <v>2</v>
-      </c>
-      <c r="K24">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>34</v>
-      </c>
-      <c r="B25">
-        <v>47</v>
-      </c>
-      <c r="C25">
-        <v>67</v>
-      </c>
-      <c r="D25">
-        <v>54.5</v>
-      </c>
-      <c r="E25">
-        <v>55</v>
-      </c>
-      <c r="F25">
-        <v>16317.4</v>
-      </c>
-      <c r="G25">
-        <v>6</v>
-      </c>
-      <c r="H25">
-        <v>8</v>
-      </c>
-      <c r="I25">
-        <v>3</v>
-      </c>
-      <c r="J25">
-        <v>6</v>
-      </c>
-      <c r="K25">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26">
-        <v>546</v>
-      </c>
-      <c r="C26">
-        <v>588</v>
-      </c>
-      <c r="D26">
-        <v>561.70000000000005</v>
-      </c>
-      <c r="E26">
-        <v>554</v>
-      </c>
-      <c r="F26">
-        <v>22417.5</v>
-      </c>
-      <c r="G26">
-        <v>44</v>
-      </c>
-      <c r="H26">
-        <v>56</v>
-      </c>
-      <c r="I26">
-        <v>37</v>
-      </c>
-      <c r="J26">
-        <v>57</v>
-      </c>
-      <c r="K26">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>36</v>
-      </c>
-      <c r="B27">
-        <v>699</v>
-      </c>
-      <c r="C27">
-        <v>715</v>
-      </c>
-      <c r="D27">
-        <v>708</v>
-      </c>
-      <c r="E27">
-        <v>709</v>
-      </c>
-      <c r="F27">
-        <v>25183.3</v>
-      </c>
-      <c r="G27">
-        <v>54</v>
-      </c>
-      <c r="H27">
-        <v>58</v>
-      </c>
-      <c r="I27">
-        <v>76</v>
-      </c>
-      <c r="J27">
-        <v>79</v>
-      </c>
-      <c r="K27">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>37</v>
-      </c>
-      <c r="B28">
-        <v>1146</v>
-      </c>
-      <c r="C28">
-        <v>1188</v>
-      </c>
-      <c r="D28">
-        <v>1170.8</v>
-      </c>
-      <c r="E28">
-        <v>1169.5</v>
-      </c>
-      <c r="F28">
-        <v>32190.7</v>
-      </c>
-      <c r="G28">
-        <v>34</v>
-      </c>
-      <c r="H28">
-        <v>51</v>
-      </c>
-      <c r="I28">
-        <v>71</v>
-      </c>
-      <c r="J28">
-        <v>87</v>
-      </c>
-      <c r="K28">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29">
-        <v>14</v>
-      </c>
-      <c r="C29">
-        <v>29</v>
-      </c>
-      <c r="D29">
-        <v>23.1</v>
-      </c>
-      <c r="E29">
-        <v>23.5</v>
-      </c>
-      <c r="F29">
-        <v>16182.7</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>4</v>
-      </c>
-      <c r="I29">
-        <v>1</v>
-      </c>
-      <c r="J29">
-        <v>3</v>
-      </c>
-      <c r="K29">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>39</v>
-      </c>
-      <c r="B30">
-        <v>31</v>
-      </c>
-      <c r="C30">
-        <v>45</v>
-      </c>
-      <c r="D30">
-        <v>34.5</v>
-      </c>
-      <c r="E30">
-        <v>33.5</v>
-      </c>
-      <c r="F30">
-        <v>18690.099999999999</v>
-      </c>
-      <c r="G30">
-        <v>2</v>
-      </c>
-      <c r="H30">
-        <v>5</v>
-      </c>
-      <c r="I30">
-        <v>3</v>
-      </c>
-      <c r="J30">
-        <v>4</v>
-      </c>
-      <c r="K30">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B31">
-        <v>237</v>
-      </c>
-      <c r="C31">
-        <v>254</v>
-      </c>
-      <c r="D31">
-        <v>245.9</v>
-      </c>
-      <c r="E31">
-        <v>245</v>
-      </c>
-      <c r="F31">
-        <v>22082.400000000001</v>
-      </c>
-      <c r="G31">
-        <v>14</v>
-      </c>
-      <c r="H31">
-        <v>24</v>
-      </c>
-      <c r="I31">
-        <v>31</v>
-      </c>
-      <c r="J31">
-        <v>40</v>
-      </c>
-      <c r="K31">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>41</v>
-      </c>
-      <c r="B32">
-        <v>330</v>
-      </c>
-      <c r="C32">
-        <v>347</v>
-      </c>
-      <c r="D32">
-        <v>334.8</v>
-      </c>
-      <c r="E32">
-        <v>332</v>
-      </c>
-      <c r="F32">
-        <v>24428.2</v>
-      </c>
-      <c r="G32">
-        <v>17</v>
-      </c>
-      <c r="H32">
-        <v>25</v>
-      </c>
-      <c r="I32">
-        <v>45</v>
-      </c>
-      <c r="J32">
-        <v>56</v>
-      </c>
-      <c r="K32">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>42</v>
-      </c>
-      <c r="B33">
-        <v>229</v>
-      </c>
-      <c r="C33">
-        <v>255</v>
-      </c>
-      <c r="D33">
-        <v>241.9</v>
-      </c>
-      <c r="E33">
-        <v>245</v>
-      </c>
-      <c r="F33">
-        <v>10810.3</v>
-      </c>
-      <c r="G33">
-        <v>31</v>
-      </c>
-      <c r="H33">
-        <v>34</v>
-      </c>
-      <c r="I33">
-        <v>4</v>
-      </c>
-      <c r="J33">
-        <v>5</v>
-      </c>
-      <c r="K33">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>43</v>
-      </c>
-      <c r="B34">
-        <v>549</v>
-      </c>
-      <c r="C34">
-        <v>558</v>
-      </c>
-      <c r="D34">
-        <v>553.70000000000005</v>
-      </c>
-      <c r="E34">
-        <v>554</v>
-      </c>
-      <c r="F34">
-        <v>31236.400000000001</v>
-      </c>
-      <c r="G34">
-        <v>11</v>
-      </c>
-      <c r="H34">
-        <v>18</v>
-      </c>
-      <c r="I34">
-        <v>32</v>
-      </c>
-      <c r="J34">
-        <v>44</v>
-      </c>
-      <c r="K34">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>44</v>
-      </c>
-      <c r="B35">
-        <v>1621</v>
-      </c>
-      <c r="C35">
-        <v>1677</v>
-      </c>
-      <c r="D35">
-        <v>1652.7</v>
-      </c>
-      <c r="E35">
-        <v>1650.5</v>
-      </c>
-      <c r="F35">
-        <v>15587</v>
-      </c>
-      <c r="G35">
-        <v>103</v>
-      </c>
-      <c r="H35">
-        <v>118</v>
-      </c>
-      <c r="I35">
-        <v>70</v>
-      </c>
-      <c r="J35">
-        <v>77</v>
-      </c>
-      <c r="K35">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>45</v>
-      </c>
-      <c r="B36">
-        <v>2002</v>
-      </c>
-      <c r="C36">
-        <v>2048</v>
-      </c>
-      <c r="D36">
-        <v>2021</v>
-      </c>
-      <c r="E36">
-        <v>2020</v>
-      </c>
-      <c r="F36">
-        <v>17744.400000000001</v>
-      </c>
-      <c r="G36">
-        <v>123</v>
-      </c>
-      <c r="H36">
-        <v>135</v>
-      </c>
-      <c r="I36">
-        <v>67</v>
-      </c>
-      <c r="J36">
-        <v>76</v>
-      </c>
-      <c r="K36">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>46</v>
-      </c>
-      <c r="B37">
-        <v>3303</v>
-      </c>
-      <c r="C37">
-        <v>3335</v>
-      </c>
-      <c r="D37">
-        <v>3322.6</v>
-      </c>
-      <c r="E37">
-        <v>3323.5</v>
-      </c>
-      <c r="F37">
-        <v>24794.7</v>
-      </c>
-      <c r="G37">
-        <v>102</v>
-      </c>
-      <c r="H37">
-        <v>110</v>
-      </c>
-      <c r="I37">
-        <v>89</v>
-      </c>
-      <c r="J37">
-        <v>96</v>
-      </c>
-      <c r="K37">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>47</v>
-      </c>
-      <c r="B38">
-        <v>76</v>
-      </c>
-      <c r="C38">
-        <v>91</v>
-      </c>
-      <c r="D38">
-        <v>83.666700000000006</v>
-      </c>
-      <c r="E38">
-        <v>85</v>
-      </c>
-      <c r="F38">
-        <v>13899.9</v>
-      </c>
-      <c r="G38">
-        <v>10</v>
-      </c>
-      <c r="H38">
-        <v>12</v>
-      </c>
-      <c r="I38">
-        <v>1</v>
-      </c>
-      <c r="J38">
-        <v>3</v>
-      </c>
-      <c r="K38">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>48</v>
-      </c>
-      <c r="B39">
-        <v>103</v>
-      </c>
-      <c r="C39">
-        <v>139</v>
-      </c>
-      <c r="D39">
-        <v>117.9</v>
-      </c>
-      <c r="E39">
-        <v>115.5</v>
-      </c>
-      <c r="F39">
-        <v>16679.5</v>
-      </c>
-      <c r="G39">
-        <v>10</v>
-      </c>
-      <c r="H39">
-        <v>15</v>
-      </c>
-      <c r="I39">
-        <v>4</v>
-      </c>
-      <c r="J39">
-        <v>7</v>
-      </c>
-      <c r="K39">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>49</v>
-      </c>
-      <c r="B40">
-        <v>1142</v>
-      </c>
-      <c r="C40">
-        <v>1195</v>
-      </c>
-      <c r="D40">
-        <v>1169.5</v>
-      </c>
-      <c r="E40">
-        <v>1169.5</v>
-      </c>
-      <c r="F40">
-        <v>21361.1</v>
-      </c>
-      <c r="G40">
-        <v>83</v>
-      </c>
-      <c r="H40">
-        <v>92</v>
-      </c>
-      <c r="I40">
-        <v>61</v>
-      </c>
-      <c r="J40">
-        <v>70</v>
-      </c>
-      <c r="K40">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>50</v>
-      </c>
-      <c r="B41">
-        <v>1506</v>
-      </c>
-      <c r="C41">
-        <v>1578</v>
-      </c>
-      <c r="D41">
-        <v>1548.2</v>
-      </c>
-      <c r="E41">
-        <v>1553</v>
-      </c>
-      <c r="F41">
-        <v>24136.7</v>
-      </c>
-      <c r="G41">
-        <v>99</v>
-      </c>
-      <c r="H41">
-        <v>108</v>
-      </c>
-      <c r="I41">
-        <v>80</v>
-      </c>
-      <c r="J41">
-        <v>91</v>
-      </c>
-      <c r="K41">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>51</v>
-      </c>
-      <c r="B42">
-        <v>-1</v>
-      </c>
-      <c r="C42">
-        <v>-1</v>
-      </c>
-      <c r="D42">
-        <v>-1</v>
-      </c>
-      <c r="E42">
-        <v>-1</v>
-      </c>
-      <c r="F42">
-        <v>-1</v>
-      </c>
-      <c r="G42">
-        <v>-1</v>
-      </c>
-      <c r="H42">
-        <v>-1</v>
-      </c>
-      <c r="I42">
-        <v>-1</v>
-      </c>
-      <c r="J42">
-        <v>-1</v>
-      </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>52</v>
-      </c>
-      <c r="B43">
-        <v>5790</v>
-      </c>
-      <c r="C43">
-        <v>5829</v>
-      </c>
-      <c r="D43">
-        <v>5809.1</v>
-      </c>
-      <c r="E43">
-        <v>5809.5</v>
-      </c>
-      <c r="F43">
-        <v>323982</v>
-      </c>
-      <c r="G43">
-        <v>219</v>
-      </c>
-      <c r="H43">
-        <v>234</v>
-      </c>
-      <c r="I43">
-        <v>217</v>
-      </c>
-      <c r="J43">
-        <v>227</v>
-      </c>
-      <c r="K43">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>53</v>
-      </c>
-      <c r="B44">
-        <v>44</v>
-      </c>
-      <c r="C44">
-        <v>65</v>
-      </c>
-      <c r="D44">
-        <v>55.222200000000001</v>
-      </c>
-      <c r="E44">
-        <v>54</v>
-      </c>
-      <c r="F44">
-        <v>147805</v>
-      </c>
-      <c r="G44">
-        <v>6</v>
-      </c>
-      <c r="H44">
-        <v>9</v>
-      </c>
-      <c r="I44">
-        <v>2</v>
-      </c>
-      <c r="J44">
-        <v>3</v>
-      </c>
-      <c r="K44">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>54</v>
-      </c>
-      <c r="B45">
-        <v>74</v>
-      </c>
-      <c r="C45">
-        <v>82</v>
-      </c>
-      <c r="D45">
-        <v>78</v>
-      </c>
-      <c r="E45">
-        <v>78</v>
-      </c>
-      <c r="F45">
-        <v>146081</v>
-      </c>
-      <c r="G45">
-        <v>9</v>
-      </c>
-      <c r="H45">
-        <v>13</v>
-      </c>
-      <c r="I45">
-        <v>4</v>
-      </c>
-      <c r="J45">
-        <v>6</v>
-      </c>
-      <c r="K45">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>55</v>
-      </c>
-      <c r="B46">
-        <v>1423</v>
-      </c>
-      <c r="C46">
-        <v>1483</v>
-      </c>
-      <c r="D46">
-        <v>1449.7</v>
-      </c>
-      <c r="E46">
-        <v>1447.5</v>
-      </c>
-      <c r="F46">
-        <v>227691</v>
-      </c>
-      <c r="G46">
-        <v>147</v>
-      </c>
-      <c r="H46">
-        <v>176</v>
-      </c>
-      <c r="I46">
-        <v>131</v>
-      </c>
-      <c r="J46">
-        <v>150</v>
-      </c>
-      <c r="K46">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>56</v>
-      </c>
-      <c r="B47">
-        <v>1858</v>
-      </c>
-      <c r="C47">
-        <v>1911</v>
-      </c>
-      <c r="D47">
-        <v>1881.5</v>
-      </c>
-      <c r="E47">
-        <v>1878.5</v>
-      </c>
-      <c r="F47">
-        <v>261275</v>
-      </c>
-      <c r="G47">
-        <v>135</v>
-      </c>
-      <c r="H47">
-        <v>160</v>
-      </c>
-      <c r="I47">
-        <v>149</v>
-      </c>
-      <c r="J47">
-        <v>169</v>
-      </c>
-      <c r="K47">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>57</v>
-      </c>
-      <c r="B48">
-        <v>2901</v>
-      </c>
-      <c r="C48">
-        <v>3008</v>
-      </c>
-      <c r="D48">
-        <v>2957.6</v>
-      </c>
-      <c r="E48">
-        <v>2965.5</v>
-      </c>
-      <c r="F48">
-        <v>348479</v>
-      </c>
-      <c r="G48">
-        <v>135</v>
-      </c>
-      <c r="H48">
-        <v>152</v>
-      </c>
-      <c r="I48">
-        <v>171</v>
-      </c>
-      <c r="J48">
-        <v>191</v>
-      </c>
-      <c r="K48">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>58</v>
-      </c>
-      <c r="B49">
-        <v>19</v>
-      </c>
-      <c r="C49">
-        <v>26</v>
-      </c>
-      <c r="D49">
-        <v>21.9</v>
-      </c>
-      <c r="E49">
-        <v>21</v>
-      </c>
-      <c r="F49">
-        <v>113223</v>
-      </c>
-      <c r="G49">
-        <v>2</v>
-      </c>
-      <c r="H49">
-        <v>5</v>
-      </c>
-      <c r="I49">
-        <v>1</v>
-      </c>
-      <c r="J49">
-        <v>2</v>
-      </c>
-      <c r="K49">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>59</v>
-      </c>
-      <c r="B50">
-        <v>31</v>
-      </c>
-      <c r="C50">
-        <v>40</v>
-      </c>
-      <c r="D50">
-        <v>35.299999999999997</v>
-      </c>
-      <c r="E50">
-        <v>35</v>
-      </c>
-      <c r="F50">
-        <v>137708</v>
-      </c>
-      <c r="G50">
-        <v>3</v>
-      </c>
-      <c r="H50">
-        <v>7</v>
-      </c>
-      <c r="I50">
-        <v>2</v>
-      </c>
-      <c r="J50">
-        <v>6</v>
-      </c>
-      <c r="K50">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>60</v>
-      </c>
-      <c r="B51">
-        <v>639</v>
-      </c>
-      <c r="C51">
-        <v>665</v>
-      </c>
-      <c r="D51">
-        <v>651</v>
-      </c>
-      <c r="E51">
-        <v>651.5</v>
-      </c>
-      <c r="F51">
-        <v>222311</v>
-      </c>
-      <c r="G51">
-        <v>61</v>
-      </c>
-      <c r="H51">
-        <v>79</v>
-      </c>
-      <c r="I51">
-        <v>97</v>
-      </c>
-      <c r="J51">
-        <v>109</v>
-      </c>
-      <c r="K51">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>61</v>
-      </c>
-      <c r="B52">
-        <v>823</v>
-      </c>
-      <c r="C52">
-        <v>851</v>
-      </c>
-      <c r="D52">
-        <v>833.5</v>
-      </c>
-      <c r="E52">
-        <v>832.5</v>
-      </c>
-      <c r="F52">
-        <v>253788</v>
-      </c>
-      <c r="G52">
-        <v>63</v>
-      </c>
-      <c r="H52">
-        <v>79</v>
-      </c>
-      <c r="I52">
-        <v>90</v>
-      </c>
-      <c r="J52">
-        <v>103</v>
-      </c>
-      <c r="K52">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>62</v>
-      </c>
-      <c r="B53">
-        <v>223</v>
-      </c>
-      <c r="C53">
-        <v>255</v>
-      </c>
-      <c r="D53">
-        <v>238.2</v>
-      </c>
-      <c r="E53">
-        <v>233</v>
-      </c>
-      <c r="F53">
-        <v>68547.600000000006</v>
-      </c>
-      <c r="G53">
-        <v>30</v>
-      </c>
-      <c r="H53">
-        <v>33</v>
-      </c>
-      <c r="I53">
-        <v>5</v>
-      </c>
-      <c r="J53">
-        <v>6</v>
-      </c>
-      <c r="K53">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>63</v>
-      </c>
-      <c r="B54">
-        <v>1394</v>
-      </c>
-      <c r="C54">
-        <v>1409</v>
-      </c>
-      <c r="D54">
-        <v>1401.6</v>
-      </c>
-      <c r="E54">
-        <v>1400.5</v>
-      </c>
-      <c r="F54">
-        <v>370082</v>
-      </c>
-      <c r="G54">
-        <v>39</v>
-      </c>
-      <c r="H54">
-        <v>54</v>
-      </c>
-      <c r="I54">
-        <v>88</v>
-      </c>
-      <c r="J54">
-        <v>100</v>
-      </c>
-      <c r="K54">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>64</v>
-      </c>
-      <c r="B55">
-        <v>4219</v>
-      </c>
-      <c r="C55">
-        <v>4287</v>
-      </c>
-      <c r="D55">
-        <v>4254.8</v>
-      </c>
-      <c r="E55">
-        <v>4256</v>
-      </c>
-      <c r="F55">
-        <v>167690</v>
-      </c>
-      <c r="G55">
-        <v>307</v>
-      </c>
-      <c r="H55">
-        <v>333</v>
-      </c>
-      <c r="I55">
-        <v>174</v>
-      </c>
-      <c r="J55">
-        <v>189</v>
-      </c>
-      <c r="K55">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>65</v>
-      </c>
-      <c r="B56">
-        <v>5329</v>
-      </c>
-      <c r="C56">
-        <v>5424</v>
-      </c>
-      <c r="D56">
-        <v>5366.4</v>
-      </c>
-      <c r="E56">
-        <v>5368</v>
-      </c>
-      <c r="F56">
-        <v>206581</v>
-      </c>
-      <c r="G56">
-        <v>337</v>
-      </c>
-      <c r="H56">
-        <v>352</v>
-      </c>
-      <c r="I56">
-        <v>186</v>
-      </c>
-      <c r="J56">
-        <v>196</v>
-      </c>
-      <c r="K56">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>66</v>
-      </c>
-      <c r="B57">
-        <v>8278</v>
-      </c>
-      <c r="C57">
-        <v>8321</v>
-      </c>
-      <c r="D57">
-        <v>8295.2199999999993</v>
-      </c>
-      <c r="E57">
-        <v>8295</v>
-      </c>
-      <c r="F57">
-        <v>276336</v>
-      </c>
-      <c r="G57">
-        <v>259</v>
-      </c>
-      <c r="H57">
-        <v>272</v>
-      </c>
-      <c r="I57">
-        <v>198</v>
-      </c>
-      <c r="J57">
-        <v>214</v>
-      </c>
-      <c r="K57">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>67</v>
-      </c>
-      <c r="B58">
-        <v>75</v>
-      </c>
-      <c r="C58">
-        <v>110</v>
-      </c>
-      <c r="D58">
-        <v>88.5</v>
-      </c>
-      <c r="E58">
-        <v>86.5</v>
-      </c>
-      <c r="F58">
-        <v>141299</v>
-      </c>
-      <c r="G58">
-        <v>12</v>
-      </c>
-      <c r="H58">
-        <v>15</v>
-      </c>
-      <c r="I58">
-        <v>2</v>
-      </c>
-      <c r="J58">
-        <v>3</v>
-      </c>
-      <c r="K58">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>68</v>
-      </c>
-      <c r="B59">
-        <v>159</v>
-      </c>
-      <c r="C59">
-        <v>196</v>
-      </c>
-      <c r="D59">
-        <v>178.88900000000001</v>
-      </c>
-      <c r="E59">
-        <v>180</v>
-      </c>
-      <c r="F59">
-        <v>151543</v>
-      </c>
-      <c r="G59">
-        <v>25</v>
-      </c>
-      <c r="H59">
-        <v>29</v>
-      </c>
-      <c r="I59">
-        <v>5</v>
-      </c>
-      <c r="J59">
-        <v>6</v>
-      </c>
-      <c r="K59">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>69</v>
-      </c>
-      <c r="B60">
-        <v>2813</v>
-      </c>
-      <c r="C60">
-        <v>2898</v>
-      </c>
-      <c r="D60">
-        <v>2873.4</v>
-      </c>
-      <c r="E60">
-        <v>2873</v>
-      </c>
-      <c r="F60">
-        <v>197891</v>
-      </c>
-      <c r="G60">
-        <v>236</v>
-      </c>
-      <c r="H60">
-        <v>262</v>
-      </c>
-      <c r="I60">
-        <v>156</v>
-      </c>
-      <c r="J60">
-        <v>170</v>
-      </c>
-      <c r="K60">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>70</v>
-      </c>
-      <c r="B61">
-        <v>3874</v>
-      </c>
-      <c r="C61">
-        <v>3966</v>
-      </c>
-      <c r="D61">
-        <v>3916.9</v>
-      </c>
-      <c r="E61">
-        <v>3914.5</v>
-      </c>
-      <c r="F61">
-        <v>232557</v>
-      </c>
-      <c r="G61">
-        <v>241</v>
-      </c>
-      <c r="H61">
-        <v>268</v>
-      </c>
-      <c r="I61">
-        <v>190</v>
-      </c>
-      <c r="J61">
-        <v>209</v>
-      </c>
-      <c r="K61">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K62">
-        <f>AVERAGE(K2:K61)</f>
-        <v>9.5666666666666664</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K62"/>
-  <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="K62" sqref="K62"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2">
-        <v>107</v>
-      </c>
-      <c r="C2">
-        <v>115</v>
-      </c>
-      <c r="D2">
-        <v>110.556</v>
-      </c>
-      <c r="E2">
-        <v>107</v>
-      </c>
-      <c r="F2">
-        <v>1157.67</v>
-      </c>
-      <c r="G2">
-        <v>21</v>
-      </c>
-      <c r="H2">
-        <v>23</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3">
-        <v>-1</v>
-      </c>
-      <c r="C3">
-        <v>-1</v>
-      </c>
-      <c r="D3">
-        <v>-1</v>
-      </c>
-      <c r="E3">
-        <v>-1</v>
-      </c>
-      <c r="F3">
-        <v>-1</v>
-      </c>
-      <c r="G3">
-        <v>-1</v>
-      </c>
-      <c r="H3">
-        <v>-1</v>
-      </c>
-      <c r="I3">
-        <v>-1</v>
-      </c>
-      <c r="J3">
-        <v>-1</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4">
-        <v>-1</v>
-      </c>
-      <c r="C4">
-        <v>-1</v>
-      </c>
-      <c r="D4">
-        <v>-1</v>
-      </c>
-      <c r="E4">
-        <v>-1</v>
-      </c>
-      <c r="F4">
-        <v>-1</v>
-      </c>
-      <c r="G4">
-        <v>-1</v>
-      </c>
-      <c r="H4">
-        <v>-1</v>
-      </c>
-      <c r="I4">
-        <v>-1</v>
-      </c>
-      <c r="J4">
-        <v>-1</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5">
-        <v>-1</v>
-      </c>
-      <c r="C5">
-        <v>-1</v>
-      </c>
-      <c r="D5">
-        <v>-1</v>
-      </c>
-      <c r="E5">
-        <v>-1</v>
-      </c>
-      <c r="F5">
-        <v>-1</v>
-      </c>
-      <c r="G5">
-        <v>-1</v>
-      </c>
-      <c r="H5">
-        <v>-1</v>
-      </c>
-      <c r="I5">
-        <v>-1</v>
-      </c>
-      <c r="J5">
-        <v>-1</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6">
-        <v>-1</v>
-      </c>
-      <c r="C6">
-        <v>-1</v>
-      </c>
-      <c r="D6">
-        <v>-1</v>
-      </c>
-      <c r="E6">
-        <v>-1</v>
-      </c>
-      <c r="F6">
-        <v>-1</v>
-      </c>
-      <c r="G6">
-        <v>-1</v>
-      </c>
-      <c r="H6">
-        <v>-1</v>
-      </c>
-      <c r="I6">
-        <v>-1</v>
-      </c>
-      <c r="J6">
-        <v>-1</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7">
-        <v>347</v>
-      </c>
-      <c r="C7">
-        <v>373</v>
-      </c>
-      <c r="D7">
-        <v>356</v>
-      </c>
-      <c r="E7">
-        <v>348</v>
-      </c>
-      <c r="F7">
-        <v>8567</v>
-      </c>
-      <c r="G7">
-        <v>26</v>
-      </c>
-      <c r="H7">
-        <v>29</v>
-      </c>
-      <c r="I7">
-        <v>24</v>
-      </c>
-      <c r="J7">
-        <v>26</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8">
-        <v>-1</v>
-      </c>
-      <c r="C8">
-        <v>-1</v>
-      </c>
-      <c r="D8">
-        <v>-1</v>
-      </c>
-      <c r="E8">
-        <v>-1</v>
-      </c>
-      <c r="F8">
-        <v>-1</v>
-      </c>
-      <c r="G8">
-        <v>-1</v>
-      </c>
-      <c r="H8">
-        <v>-1</v>
-      </c>
-      <c r="I8">
-        <v>-1</v>
-      </c>
-      <c r="J8">
-        <v>-1</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9">
-        <v>13</v>
-      </c>
-      <c r="C9">
-        <v>18</v>
-      </c>
-      <c r="D9">
-        <v>14.7143</v>
-      </c>
-      <c r="E9">
-        <v>13</v>
-      </c>
-      <c r="F9">
-        <v>3853.29</v>
-      </c>
-      <c r="G9">
-        <v>4</v>
-      </c>
-      <c r="H9">
-        <v>8</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10">
-        <v>21</v>
-      </c>
-      <c r="C10">
-        <v>25</v>
-      </c>
-      <c r="D10">
-        <v>23.333300000000001</v>
-      </c>
-      <c r="E10">
-        <v>24</v>
-      </c>
-      <c r="F10">
-        <v>5273.33</v>
-      </c>
-      <c r="G10">
-        <v>5</v>
-      </c>
-      <c r="H10">
-        <v>11</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11">
-        <v>-1</v>
-      </c>
-      <c r="C11">
-        <v>-1</v>
-      </c>
-      <c r="D11">
-        <v>-1</v>
-      </c>
-      <c r="E11">
-        <v>-1</v>
-      </c>
-      <c r="F11">
-        <v>-1</v>
-      </c>
-      <c r="G11">
-        <v>-1</v>
-      </c>
-      <c r="H11">
-        <v>-1</v>
-      </c>
-      <c r="I11">
-        <v>-1</v>
-      </c>
-      <c r="J11">
-        <v>-1</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12">
-        <v>175</v>
-      </c>
-      <c r="C12">
-        <v>175</v>
-      </c>
-      <c r="D12">
-        <v>175</v>
-      </c>
-      <c r="E12">
-        <v>175</v>
-      </c>
-      <c r="F12">
-        <v>8188</v>
-      </c>
-      <c r="G12">
-        <v>27</v>
-      </c>
-      <c r="H12">
-        <v>27</v>
-      </c>
-      <c r="I12">
-        <v>9</v>
-      </c>
-      <c r="J12">
-        <v>9</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13">
-        <v>152</v>
-      </c>
-      <c r="C13">
-        <v>192</v>
-      </c>
-      <c r="D13">
-        <v>167.667</v>
-      </c>
-      <c r="E13">
-        <v>159</v>
-      </c>
-      <c r="F13">
-        <v>3110</v>
-      </c>
-      <c r="G13">
-        <v>18</v>
-      </c>
-      <c r="H13">
-        <v>22</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14">
-        <v>267</v>
-      </c>
-      <c r="C14">
-        <v>270</v>
-      </c>
-      <c r="D14">
-        <v>268.3</v>
-      </c>
-      <c r="E14">
-        <v>268</v>
-      </c>
-      <c r="F14">
-        <v>10003.9</v>
-      </c>
-      <c r="G14">
-        <v>7</v>
-      </c>
-      <c r="H14">
-        <v>10</v>
-      </c>
-      <c r="I14">
-        <v>5</v>
-      </c>
-      <c r="J14">
-        <v>8</v>
-      </c>
-      <c r="K14">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15">
-        <v>-1</v>
-      </c>
-      <c r="C15">
-        <v>-1</v>
-      </c>
-      <c r="D15">
-        <v>-1</v>
-      </c>
-      <c r="E15">
-        <v>-1</v>
-      </c>
-      <c r="F15">
-        <v>-1</v>
-      </c>
-      <c r="G15">
-        <v>-1</v>
-      </c>
-      <c r="H15">
-        <v>-1</v>
-      </c>
-      <c r="I15">
-        <v>-1</v>
-      </c>
-      <c r="J15">
-        <v>-1</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16">
-        <v>-1</v>
-      </c>
-      <c r="C16">
-        <v>-1</v>
-      </c>
-      <c r="D16">
-        <v>-1</v>
-      </c>
-      <c r="E16">
-        <v>-1</v>
-      </c>
-      <c r="F16">
-        <v>-1</v>
-      </c>
-      <c r="G16">
-        <v>-1</v>
-      </c>
-      <c r="H16">
-        <v>-1</v>
-      </c>
-      <c r="I16">
-        <v>-1</v>
-      </c>
-      <c r="J16">
-        <v>-1</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17">
-        <v>-1</v>
-      </c>
-      <c r="C17">
-        <v>-1</v>
-      </c>
-      <c r="D17">
-        <v>-1</v>
-      </c>
-      <c r="E17">
-        <v>-1</v>
-      </c>
-      <c r="F17">
-        <v>-1</v>
-      </c>
-      <c r="G17">
-        <v>-1</v>
-      </c>
-      <c r="H17">
-        <v>-1</v>
-      </c>
-      <c r="I17">
-        <v>-1</v>
-      </c>
-      <c r="J17">
-        <v>-1</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18">
-        <v>71</v>
-      </c>
-      <c r="C18">
-        <v>80</v>
-      </c>
-      <c r="D18">
-        <v>73.400000000000006</v>
-      </c>
-      <c r="E18">
-        <v>72</v>
-      </c>
-      <c r="F18">
-        <v>2725.4</v>
-      </c>
-      <c r="G18">
-        <v>12</v>
-      </c>
-      <c r="H18">
-        <v>14</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19">
-        <v>119</v>
-      </c>
-      <c r="C19">
-        <v>139</v>
-      </c>
-      <c r="D19">
-        <v>123.5</v>
-      </c>
-      <c r="E19">
-        <v>120.5</v>
-      </c>
-      <c r="F19">
-        <v>1857</v>
-      </c>
-      <c r="G19">
-        <v>18</v>
-      </c>
-      <c r="H19">
-        <v>24</v>
-      </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
-      <c r="J19">
-        <v>1</v>
-      </c>
-      <c r="K19">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20">
-        <v>-1</v>
-      </c>
-      <c r="C20">
-        <v>-1</v>
-      </c>
-      <c r="D20">
-        <v>-1</v>
-      </c>
-      <c r="E20">
-        <v>-1</v>
-      </c>
-      <c r="F20">
-        <v>-1</v>
-      </c>
-      <c r="G20">
-        <v>-1</v>
-      </c>
-      <c r="H20">
-        <v>-1</v>
-      </c>
-      <c r="I20">
-        <v>-1</v>
-      </c>
-      <c r="J20">
-        <v>-1</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21">
-        <v>-1</v>
-      </c>
-      <c r="C21">
-        <v>-1</v>
-      </c>
-      <c r="D21">
-        <v>-1</v>
-      </c>
-      <c r="E21">
-        <v>-1</v>
-      </c>
-      <c r="F21">
-        <v>-1</v>
-      </c>
-      <c r="G21">
-        <v>-1</v>
-      </c>
-      <c r="H21">
-        <v>-1</v>
-      </c>
-      <c r="I21">
-        <v>-1</v>
-      </c>
-      <c r="J21">
-        <v>-1</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22">
-        <v>111</v>
-      </c>
-      <c r="C22">
-        <v>122</v>
-      </c>
-      <c r="D22">
-        <v>114.3</v>
-      </c>
-      <c r="E22">
-        <v>113.5</v>
-      </c>
-      <c r="F22">
-        <v>3385.9</v>
-      </c>
-      <c r="G22">
-        <v>20</v>
-      </c>
-      <c r="H22">
-        <v>31</v>
-      </c>
-      <c r="I22">
-        <v>1</v>
-      </c>
-      <c r="J22">
-        <v>1</v>
-      </c>
-      <c r="K22">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23">
-        <v>-1</v>
-      </c>
-      <c r="C23">
-        <v>-1</v>
-      </c>
-      <c r="D23">
-        <v>-1</v>
-      </c>
-      <c r="E23">
-        <v>-1</v>
-      </c>
-      <c r="F23">
-        <v>-1</v>
-      </c>
-      <c r="G23">
-        <v>-1</v>
-      </c>
-      <c r="H23">
-        <v>-1</v>
-      </c>
-      <c r="I23">
-        <v>-1</v>
-      </c>
-      <c r="J23">
-        <v>-1</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24">
-        <v>33</v>
-      </c>
-      <c r="C24">
-        <v>36</v>
-      </c>
-      <c r="D24">
-        <v>33.8889</v>
-      </c>
-      <c r="E24">
-        <v>34</v>
-      </c>
-      <c r="F24">
-        <v>4915</v>
-      </c>
-      <c r="G24">
-        <v>8</v>
-      </c>
-      <c r="H24">
-        <v>11</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>34</v>
-      </c>
-      <c r="B25">
-        <v>45</v>
-      </c>
-      <c r="C25">
-        <v>59</v>
-      </c>
-      <c r="D25">
-        <v>47.285699999999999</v>
-      </c>
-      <c r="E25">
-        <v>45</v>
-      </c>
-      <c r="F25">
-        <v>7510.43</v>
-      </c>
-      <c r="G25">
-        <v>15</v>
-      </c>
-      <c r="H25">
-        <v>19</v>
-      </c>
-      <c r="I25">
-        <v>1</v>
-      </c>
-      <c r="J25">
-        <v>1</v>
-      </c>
-      <c r="K25">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26">
-        <v>-1</v>
-      </c>
-      <c r="C26">
-        <v>-1</v>
-      </c>
-      <c r="D26">
-        <v>-1</v>
-      </c>
-      <c r="E26">
-        <v>-1</v>
-      </c>
-      <c r="F26">
-        <v>-1</v>
-      </c>
-      <c r="G26">
-        <v>-1</v>
-      </c>
-      <c r="H26">
-        <v>-1</v>
-      </c>
-      <c r="I26">
-        <v>-1</v>
-      </c>
-      <c r="J26">
-        <v>-1</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>36</v>
-      </c>
-      <c r="B27">
-        <v>-1</v>
-      </c>
-      <c r="C27">
-        <v>-1</v>
-      </c>
-      <c r="D27">
-        <v>-1</v>
-      </c>
-      <c r="E27">
-        <v>-1</v>
-      </c>
-      <c r="F27">
-        <v>-1</v>
-      </c>
-      <c r="G27">
-        <v>-1</v>
-      </c>
-      <c r="H27">
-        <v>-1</v>
-      </c>
-      <c r="I27">
-        <v>-1</v>
-      </c>
-      <c r="J27">
-        <v>-1</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>37</v>
-      </c>
-      <c r="B28">
-        <v>-1</v>
-      </c>
-      <c r="C28">
-        <v>-1</v>
-      </c>
-      <c r="D28">
-        <v>-1</v>
-      </c>
-      <c r="E28">
-        <v>-1</v>
-      </c>
-      <c r="F28">
-        <v>-1</v>
-      </c>
-      <c r="G28">
-        <v>-1</v>
-      </c>
-      <c r="H28">
-        <v>-1</v>
-      </c>
-      <c r="I28">
-        <v>-1</v>
-      </c>
-      <c r="J28">
-        <v>-1</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29">
-        <v>16</v>
-      </c>
-      <c r="C29">
-        <v>24</v>
-      </c>
-      <c r="D29">
-        <v>19.333300000000001</v>
-      </c>
-      <c r="E29">
-        <v>19</v>
-      </c>
-      <c r="F29">
-        <v>7564.33</v>
-      </c>
-      <c r="G29">
-        <v>5</v>
-      </c>
-      <c r="H29">
-        <v>13</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>39</v>
-      </c>
-      <c r="B30">
-        <v>-1</v>
-      </c>
-      <c r="C30">
-        <v>-1</v>
-      </c>
-      <c r="D30">
-        <v>-1</v>
-      </c>
-      <c r="E30">
-        <v>-1</v>
-      </c>
-      <c r="F30">
-        <v>-1</v>
-      </c>
-      <c r="G30">
-        <v>-1</v>
-      </c>
-      <c r="H30">
-        <v>-1</v>
-      </c>
-      <c r="I30">
-        <v>-1</v>
-      </c>
-      <c r="J30">
-        <v>-1</v>
-      </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B31">
-        <v>-1</v>
-      </c>
-      <c r="C31">
-        <v>-1</v>
-      </c>
-      <c r="D31">
-        <v>-1</v>
-      </c>
-      <c r="E31">
-        <v>-1</v>
-      </c>
-      <c r="F31">
-        <v>-1</v>
-      </c>
-      <c r="G31">
-        <v>-1</v>
-      </c>
-      <c r="H31">
-        <v>-1</v>
-      </c>
-      <c r="I31">
-        <v>-1</v>
-      </c>
-      <c r="J31">
-        <v>-1</v>
-      </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>41</v>
-      </c>
-      <c r="B32">
-        <v>-1</v>
-      </c>
-      <c r="C32">
-        <v>-1</v>
-      </c>
-      <c r="D32">
-        <v>-1</v>
-      </c>
-      <c r="E32">
-        <v>-1</v>
-      </c>
-      <c r="F32">
-        <v>-1</v>
-      </c>
-      <c r="G32">
-        <v>-1</v>
-      </c>
-      <c r="H32">
-        <v>-1</v>
-      </c>
-      <c r="I32">
-        <v>-1</v>
-      </c>
-      <c r="J32">
-        <v>-1</v>
-      </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>42</v>
-      </c>
-      <c r="B33">
-        <v>-1</v>
-      </c>
-      <c r="C33">
-        <v>-1</v>
-      </c>
-      <c r="D33">
-        <v>-1</v>
-      </c>
-      <c r="E33">
-        <v>-1</v>
-      </c>
-      <c r="F33">
-        <v>-1</v>
-      </c>
-      <c r="G33">
-        <v>-1</v>
-      </c>
-      <c r="H33">
-        <v>-1</v>
-      </c>
-      <c r="I33">
-        <v>-1</v>
-      </c>
-      <c r="J33">
-        <v>-1</v>
-      </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>43</v>
-      </c>
-      <c r="B34">
-        <v>-1</v>
-      </c>
-      <c r="C34">
-        <v>-1</v>
-      </c>
-      <c r="D34">
-        <v>-1</v>
-      </c>
-      <c r="E34">
-        <v>-1</v>
-      </c>
-      <c r="F34">
-        <v>-1</v>
-      </c>
-      <c r="G34">
-        <v>-1</v>
-      </c>
-      <c r="H34">
-        <v>-1</v>
-      </c>
-      <c r="I34">
-        <v>-1</v>
-      </c>
-      <c r="J34">
-        <v>-1</v>
-      </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>44</v>
-      </c>
-      <c r="B35">
-        <v>-1</v>
-      </c>
-      <c r="C35">
-        <v>-1</v>
-      </c>
-      <c r="D35">
-        <v>-1</v>
-      </c>
-      <c r="E35">
-        <v>-1</v>
-      </c>
-      <c r="F35">
-        <v>-1</v>
-      </c>
-      <c r="G35">
-        <v>-1</v>
-      </c>
-      <c r="H35">
-        <v>-1</v>
-      </c>
-      <c r="I35">
-        <v>-1</v>
-      </c>
-      <c r="J35">
-        <v>-1</v>
-      </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>45</v>
-      </c>
-      <c r="B36">
-        <v>-1</v>
-      </c>
-      <c r="C36">
-        <v>-1</v>
-      </c>
-      <c r="D36">
-        <v>-1</v>
-      </c>
-      <c r="E36">
-        <v>-1</v>
-      </c>
-      <c r="F36">
-        <v>-1</v>
-      </c>
-      <c r="G36">
-        <v>-1</v>
-      </c>
-      <c r="H36">
-        <v>-1</v>
-      </c>
-      <c r="I36">
-        <v>-1</v>
-      </c>
-      <c r="J36">
-        <v>-1</v>
-      </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>46</v>
-      </c>
-      <c r="B37">
-        <v>-1</v>
-      </c>
-      <c r="C37">
-        <v>-1</v>
-      </c>
-      <c r="D37">
-        <v>-1</v>
-      </c>
-      <c r="E37">
-        <v>-1</v>
-      </c>
-      <c r="F37">
-        <v>-1</v>
-      </c>
-      <c r="G37">
-        <v>-1</v>
-      </c>
-      <c r="H37">
-        <v>-1</v>
-      </c>
-      <c r="I37">
-        <v>-1</v>
-      </c>
-      <c r="J37">
-        <v>-1</v>
-      </c>
-      <c r="K37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>47</v>
-      </c>
-      <c r="B38">
-        <v>94</v>
-      </c>
-      <c r="C38">
-        <v>120</v>
-      </c>
-      <c r="D38">
-        <v>104.667</v>
-      </c>
-      <c r="E38">
-        <v>100</v>
-      </c>
-      <c r="F38">
-        <v>7603.67</v>
-      </c>
-      <c r="G38">
-        <v>20</v>
-      </c>
-      <c r="H38">
-        <v>21</v>
-      </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
-      <c r="K38">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>48</v>
-      </c>
-      <c r="B39">
-        <v>142</v>
-      </c>
-      <c r="C39">
-        <v>201</v>
-      </c>
-      <c r="D39">
-        <v>168.8</v>
-      </c>
-      <c r="E39">
-        <v>170</v>
-      </c>
-      <c r="F39">
-        <v>3651.4</v>
-      </c>
-      <c r="G39">
-        <v>28</v>
-      </c>
-      <c r="H39">
-        <v>49</v>
-      </c>
-      <c r="I39">
-        <v>2</v>
-      </c>
-      <c r="J39">
-        <v>2</v>
-      </c>
-      <c r="K39">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>49</v>
-      </c>
-      <c r="B40">
-        <v>-1</v>
-      </c>
-      <c r="C40">
-        <v>-1</v>
-      </c>
-      <c r="D40">
-        <v>-1</v>
-      </c>
-      <c r="E40">
-        <v>-1</v>
-      </c>
-      <c r="F40">
-        <v>-1</v>
-      </c>
-      <c r="G40">
-        <v>-1</v>
-      </c>
-      <c r="H40">
-        <v>-1</v>
-      </c>
-      <c r="I40">
-        <v>-1</v>
-      </c>
-      <c r="J40">
-        <v>-1</v>
-      </c>
-      <c r="K40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>50</v>
-      </c>
-      <c r="B41">
-        <v>-1</v>
-      </c>
-      <c r="C41">
-        <v>-1</v>
-      </c>
-      <c r="D41">
-        <v>-1</v>
-      </c>
-      <c r="E41">
-        <v>-1</v>
-      </c>
-      <c r="F41">
-        <v>-1</v>
-      </c>
-      <c r="G41">
-        <v>-1</v>
-      </c>
-      <c r="H41">
-        <v>-1</v>
-      </c>
-      <c r="I41">
-        <v>-1</v>
-      </c>
-      <c r="J41">
-        <v>-1</v>
-      </c>
-      <c r="K41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>51</v>
-      </c>
-      <c r="B42">
-        <v>122</v>
-      </c>
-      <c r="C42">
-        <v>122</v>
-      </c>
-      <c r="D42">
-        <v>122</v>
-      </c>
-      <c r="E42">
-        <v>122</v>
-      </c>
-      <c r="F42">
-        <v>12506.4</v>
-      </c>
-      <c r="G42">
-        <v>19</v>
-      </c>
-      <c r="H42">
-        <v>19</v>
-      </c>
-      <c r="I42">
-        <v>1</v>
-      </c>
-      <c r="J42">
-        <v>1</v>
-      </c>
-      <c r="K42">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>52</v>
-      </c>
-      <c r="B43">
-        <v>-1</v>
-      </c>
-      <c r="C43">
-        <v>-1</v>
-      </c>
-      <c r="D43">
-        <v>-1</v>
-      </c>
-      <c r="E43">
-        <v>-1</v>
-      </c>
-      <c r="F43">
-        <v>-1</v>
-      </c>
-      <c r="G43">
-        <v>-1</v>
-      </c>
-      <c r="H43">
-        <v>-1</v>
-      </c>
-      <c r="I43">
-        <v>-1</v>
-      </c>
-      <c r="J43">
-        <v>-1</v>
-      </c>
-      <c r="K43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>53</v>
-      </c>
-      <c r="B44">
-        <v>76</v>
-      </c>
-      <c r="C44">
-        <v>76</v>
-      </c>
-      <c r="D44">
-        <v>76</v>
-      </c>
-      <c r="E44">
-        <v>76</v>
-      </c>
-      <c r="F44">
-        <v>138229</v>
-      </c>
-      <c r="G44">
-        <v>14</v>
-      </c>
-      <c r="H44">
-        <v>14</v>
-      </c>
-      <c r="I44">
-        <v>0</v>
-      </c>
-      <c r="J44">
-        <v>0</v>
-      </c>
-      <c r="K44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>54</v>
-      </c>
-      <c r="B45">
-        <v>-1</v>
-      </c>
-      <c r="C45">
-        <v>-1</v>
-      </c>
-      <c r="D45">
-        <v>-1</v>
-      </c>
-      <c r="E45">
-        <v>-1</v>
-      </c>
-      <c r="F45">
-        <v>-1</v>
-      </c>
-      <c r="G45">
-        <v>-1</v>
-      </c>
-      <c r="H45">
-        <v>-1</v>
-      </c>
-      <c r="I45">
-        <v>-1</v>
-      </c>
-      <c r="J45">
-        <v>-1</v>
-      </c>
-      <c r="K45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>55</v>
-      </c>
-      <c r="B46">
-        <v>-1</v>
-      </c>
-      <c r="C46">
-        <v>-1</v>
-      </c>
-      <c r="D46">
-        <v>-1</v>
-      </c>
-      <c r="E46">
-        <v>-1</v>
-      </c>
-      <c r="F46">
-        <v>-1</v>
-      </c>
-      <c r="G46">
-        <v>-1</v>
-      </c>
-      <c r="H46">
-        <v>-1</v>
-      </c>
-      <c r="I46">
-        <v>-1</v>
-      </c>
-      <c r="J46">
-        <v>-1</v>
-      </c>
-      <c r="K46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>56</v>
-      </c>
-      <c r="B47">
-        <v>-1</v>
-      </c>
-      <c r="C47">
-        <v>-1</v>
-      </c>
-      <c r="D47">
-        <v>-1</v>
-      </c>
-      <c r="E47">
-        <v>-1</v>
-      </c>
-      <c r="F47">
-        <v>-1</v>
-      </c>
-      <c r="G47">
-        <v>-1</v>
-      </c>
-      <c r="H47">
-        <v>-1</v>
-      </c>
-      <c r="I47">
-        <v>-1</v>
-      </c>
-      <c r="J47">
-        <v>-1</v>
-      </c>
-      <c r="K47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>57</v>
-      </c>
-      <c r="B48">
-        <v>-1</v>
-      </c>
-      <c r="C48">
-        <v>-1</v>
-      </c>
-      <c r="D48">
-        <v>-1</v>
-      </c>
-      <c r="E48">
-        <v>-1</v>
-      </c>
-      <c r="F48">
-        <v>-1</v>
-      </c>
-      <c r="G48">
-        <v>-1</v>
-      </c>
-      <c r="H48">
-        <v>-1</v>
-      </c>
-      <c r="I48">
-        <v>-1</v>
-      </c>
-      <c r="J48">
-        <v>-1</v>
-      </c>
-      <c r="K48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>58</v>
-      </c>
-      <c r="B49">
-        <v>19</v>
-      </c>
-      <c r="C49">
-        <v>37</v>
-      </c>
-      <c r="D49">
-        <v>26.333300000000001</v>
-      </c>
-      <c r="E49">
-        <v>26.5</v>
-      </c>
-      <c r="F49">
-        <v>54512.5</v>
-      </c>
-      <c r="G49">
-        <v>5</v>
-      </c>
-      <c r="H49">
-        <v>18</v>
-      </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
-      <c r="J49">
-        <v>0</v>
-      </c>
-      <c r="K49">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>59</v>
-      </c>
-      <c r="B50">
-        <v>-1</v>
-      </c>
-      <c r="C50">
-        <v>-1</v>
-      </c>
-      <c r="D50">
-        <v>-1</v>
-      </c>
-      <c r="E50">
-        <v>-1</v>
-      </c>
-      <c r="F50">
-        <v>-1</v>
-      </c>
-      <c r="G50">
-        <v>-1</v>
-      </c>
-      <c r="H50">
-        <v>-1</v>
-      </c>
-      <c r="I50">
-        <v>-1</v>
-      </c>
-      <c r="J50">
-        <v>-1</v>
-      </c>
-      <c r="K50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>60</v>
-      </c>
-      <c r="B51">
-        <v>-1</v>
-      </c>
-      <c r="C51">
-        <v>-1</v>
-      </c>
-      <c r="D51">
-        <v>-1</v>
-      </c>
-      <c r="E51">
-        <v>-1</v>
-      </c>
-      <c r="F51">
-        <v>-1</v>
-      </c>
-      <c r="G51">
-        <v>-1</v>
-      </c>
-      <c r="H51">
-        <v>-1</v>
-      </c>
-      <c r="I51">
-        <v>-1</v>
-      </c>
-      <c r="J51">
-        <v>-1</v>
-      </c>
-      <c r="K51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>61</v>
-      </c>
-      <c r="B52">
-        <v>-1</v>
-      </c>
-      <c r="C52">
-        <v>-1</v>
-      </c>
-      <c r="D52">
-        <v>-1</v>
-      </c>
-      <c r="E52">
-        <v>-1</v>
-      </c>
-      <c r="F52">
-        <v>-1</v>
-      </c>
-      <c r="G52">
-        <v>-1</v>
-      </c>
-      <c r="H52">
-        <v>-1</v>
-      </c>
-      <c r="I52">
-        <v>-1</v>
-      </c>
-      <c r="J52">
-        <v>-1</v>
-      </c>
-      <c r="K52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>62</v>
-      </c>
-      <c r="B53">
-        <v>248</v>
-      </c>
-      <c r="C53">
-        <v>282</v>
-      </c>
-      <c r="D53">
-        <v>267.60000000000002</v>
-      </c>
-      <c r="E53">
-        <v>270</v>
-      </c>
-      <c r="F53">
-        <v>12837</v>
-      </c>
-      <c r="G53">
-        <v>39</v>
-      </c>
-      <c r="H53">
-        <v>51</v>
-      </c>
-      <c r="I53">
-        <v>3</v>
-      </c>
-      <c r="J53">
-        <v>3</v>
-      </c>
-      <c r="K53">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>63</v>
-      </c>
-      <c r="B54">
-        <v>-1</v>
-      </c>
-      <c r="C54">
-        <v>-1</v>
-      </c>
-      <c r="D54">
-        <v>-1</v>
-      </c>
-      <c r="E54">
-        <v>-1</v>
-      </c>
-      <c r="F54">
-        <v>-1</v>
-      </c>
-      <c r="G54">
-        <v>-1</v>
-      </c>
-      <c r="H54">
-        <v>-1</v>
-      </c>
-      <c r="I54">
-        <v>-1</v>
-      </c>
-      <c r="J54">
-        <v>-1</v>
-      </c>
-      <c r="K54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>64</v>
-      </c>
-      <c r="B55">
-        <v>-1</v>
-      </c>
-      <c r="C55">
-        <v>-1</v>
-      </c>
-      <c r="D55">
-        <v>-1</v>
-      </c>
-      <c r="E55">
-        <v>-1</v>
-      </c>
-      <c r="F55">
-        <v>-1</v>
-      </c>
-      <c r="G55">
-        <v>-1</v>
-      </c>
-      <c r="H55">
-        <v>-1</v>
-      </c>
-      <c r="I55">
-        <v>-1</v>
-      </c>
-      <c r="J55">
-        <v>-1</v>
-      </c>
-      <c r="K55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>65</v>
-      </c>
-      <c r="B56">
-        <v>-1</v>
-      </c>
-      <c r="C56">
-        <v>-1</v>
-      </c>
-      <c r="D56">
-        <v>-1</v>
-      </c>
-      <c r="E56">
-        <v>-1</v>
-      </c>
-      <c r="F56">
-        <v>-1</v>
-      </c>
-      <c r="G56">
-        <v>-1</v>
-      </c>
-      <c r="H56">
-        <v>-1</v>
-      </c>
-      <c r="I56">
-        <v>-1</v>
-      </c>
-      <c r="J56">
-        <v>-1</v>
-      </c>
-      <c r="K56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>66</v>
-      </c>
-      <c r="B57">
-        <v>-1</v>
-      </c>
-      <c r="C57">
-        <v>-1</v>
-      </c>
-      <c r="D57">
-        <v>-1</v>
-      </c>
-      <c r="E57">
-        <v>-1</v>
-      </c>
-      <c r="F57">
-        <v>-1</v>
-      </c>
-      <c r="G57">
-        <v>-1</v>
-      </c>
-      <c r="H57">
-        <v>-1</v>
-      </c>
-      <c r="I57">
-        <v>-1</v>
-      </c>
-      <c r="J57">
-        <v>-1</v>
-      </c>
-      <c r="K57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>67</v>
-      </c>
-      <c r="B58">
-        <v>80</v>
-      </c>
-      <c r="C58">
-        <v>94</v>
-      </c>
-      <c r="D58">
-        <v>82.8</v>
-      </c>
-      <c r="E58">
-        <v>81</v>
-      </c>
-      <c r="F58">
-        <v>18431.400000000001</v>
-      </c>
-      <c r="G58">
-        <v>18</v>
-      </c>
-      <c r="H58">
-        <v>23</v>
-      </c>
-      <c r="I58">
-        <v>1</v>
-      </c>
-      <c r="J58">
-        <v>1</v>
-      </c>
-      <c r="K58">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>68</v>
-      </c>
-      <c r="B59">
-        <v>172</v>
-      </c>
-      <c r="C59">
-        <v>198</v>
-      </c>
-      <c r="D59">
-        <v>185.4</v>
-      </c>
-      <c r="E59">
-        <v>185</v>
-      </c>
-      <c r="F59">
-        <v>18326.5</v>
-      </c>
-      <c r="G59">
-        <v>36</v>
-      </c>
-      <c r="H59">
-        <v>58</v>
-      </c>
-      <c r="I59">
-        <v>4</v>
-      </c>
-      <c r="J59">
-        <v>4</v>
-      </c>
-      <c r="K59">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>69</v>
-      </c>
-      <c r="B60">
-        <v>-1</v>
-      </c>
-      <c r="C60">
-        <v>-1</v>
-      </c>
-      <c r="D60">
-        <v>-1</v>
-      </c>
-      <c r="E60">
-        <v>-1</v>
-      </c>
-      <c r="F60">
-        <v>-1</v>
-      </c>
-      <c r="G60">
-        <v>-1</v>
-      </c>
-      <c r="H60">
-        <v>-1</v>
-      </c>
-      <c r="I60">
-        <v>-1</v>
-      </c>
-      <c r="J60">
-        <v>-1</v>
-      </c>
-      <c r="K60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>70</v>
-      </c>
-      <c r="B61">
-        <v>-1</v>
-      </c>
-      <c r="C61">
-        <v>-1</v>
-      </c>
-      <c r="D61">
-        <v>-1</v>
-      </c>
-      <c r="E61">
-        <v>-1</v>
-      </c>
-      <c r="F61">
-        <v>-1</v>
-      </c>
-      <c r="G61">
-        <v>-1</v>
-      </c>
-      <c r="H61">
-        <v>-1</v>
-      </c>
-      <c r="I61">
-        <v>-1</v>
-      </c>
-      <c r="J61">
-        <v>-1</v>
-      </c>
-      <c r="K61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K62">
-        <f>AVERAGE(K2:K61)</f>
-        <v>2.2666666666666666</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L62"/>
   <sheetViews>
@@ -14389,7 +9993,7 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="H1" t="s">
         <v>6</v>
@@ -14409,7 +10013,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="B2">
         <v>87</v>
@@ -14447,7 +10051,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="B3">
         <v>150</v>
@@ -14485,7 +10089,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="B4">
         <v>771</v>
@@ -14523,7 +10127,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="B5">
         <v>1082</v>
@@ -14561,7 +10165,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="B6">
         <v>1594</v>
@@ -14599,7 +10203,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="B7">
         <v>55</v>
@@ -14637,7 +10241,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="B8">
         <v>107</v>
@@ -14675,7 +10279,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="B9">
         <v>549</v>
@@ -14713,7 +10317,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="B10">
         <v>723</v>
@@ -14751,7 +10355,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <v>1118</v>
@@ -14789,7 +10393,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <v>36</v>
@@ -14827,7 +10431,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13">
         <v>60</v>
@@ -14865,7 +10469,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14">
         <v>268</v>
@@ -14903,7 +10507,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15">
         <v>333</v>
@@ -14941,7 +10545,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16">
         <v>559</v>
@@ -14979,7 +10583,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17">
         <v>15</v>
@@ -15017,7 +10621,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18">
         <v>24</v>
@@ -15055,7 +10659,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19">
         <v>116</v>
@@ -15093,7 +10697,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20">
         <v>150</v>
@@ -15131,7 +10735,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B21">
         <v>268</v>
@@ -15169,7 +10773,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="B22">
         <v>127</v>
@@ -15207,7 +10811,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="B23">
         <v>229</v>
@@ -15245,7 +10849,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="B24">
         <v>1622</v>
@@ -15283,7 +10887,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="B25">
         <v>1984</v>
@@ -15321,7 +10925,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="B26">
         <v>3299</v>
@@ -15359,7 +10963,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="B27">
         <v>72</v>
@@ -15397,7 +11001,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="B28">
         <v>107</v>
@@ -15435,7 +11039,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="B29">
         <v>1135</v>
@@ -15473,7 +11077,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="B30">
         <v>-1</v>
@@ -15511,7 +11115,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B31">
         <v>2151</v>
@@ -15549,7 +11153,7 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B32">
         <v>34</v>
@@ -15587,7 +11191,7 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B33">
         <v>46</v>
@@ -15625,7 +11229,7 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B34">
         <v>539</v>
@@ -15663,7 +11267,7 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B35">
         <v>687</v>
@@ -15701,7 +11305,7 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B36">
         <v>1154</v>
@@ -15739,7 +11343,7 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B37">
         <v>17</v>
@@ -15777,7 +11381,7 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B38">
         <v>29</v>
@@ -15815,7 +11419,7 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B39">
         <v>233</v>
@@ -15853,7 +11457,7 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B40">
         <v>320</v>
@@ -15891,7 +11495,7 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B41">
         <v>546</v>
@@ -15929,7 +11533,7 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="B42">
         <v>118</v>
@@ -15967,7 +11571,7 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="B43">
         <v>227</v>
@@ -16005,7 +11609,7 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="B44">
         <v>4210</v>
@@ -16043,7 +11647,7 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="B45">
         <v>5309</v>
@@ -16081,7 +11685,7 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="B46">
         <v>8255</v>
@@ -16119,7 +11723,7 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="B47">
         <v>78</v>
@@ -16157,7 +11761,7 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="B48">
         <v>156</v>
@@ -16195,7 +11799,7 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="B49">
         <v>2805</v>
@@ -16233,7 +11837,7 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="B50">
         <v>3820</v>
@@ -16271,7 +11875,7 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="B51">
         <v>5775</v>
@@ -16309,7 +11913,7 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="B52">
         <v>43</v>
@@ -16347,7 +11951,7 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="B53">
         <v>74</v>
@@ -16385,7 +11989,7 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="B54">
         <v>1376</v>
@@ -16423,7 +12027,7 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="B55">
         <v>1825</v>
@@ -16461,7 +12065,7 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="B56">
         <v>2869</v>
@@ -16499,7 +12103,7 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="B57">
         <v>20</v>
@@ -16537,7 +12141,7 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="B58">
         <v>26</v>
@@ -16575,7 +12179,7 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="B59">
         <v>622</v>
@@ -16613,7 +12217,7 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="B60">
         <v>788</v>
@@ -16651,7 +12255,7 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="B61">
         <v>1372</v>
@@ -16706,7 +12310,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L62"/>
   <sheetViews>
@@ -16736,7 +12340,7 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="H1" t="s">
         <v>6</v>
@@ -16756,7 +12360,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="B2">
         <v>87</v>
@@ -16794,7 +12398,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="B3">
         <v>150</v>
@@ -16832,7 +12436,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="B4">
         <v>775</v>
@@ -16870,7 +12474,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="B5">
         <v>1089</v>
@@ -16908,7 +12512,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="B6">
         <v>1594</v>
@@ -16946,7 +12550,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="B7">
         <v>55</v>
@@ -16984,7 +12588,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="B8">
         <v>113</v>
@@ -17022,7 +12626,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="B9">
         <v>543</v>
@@ -17060,7 +12664,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="B10">
         <v>727</v>
@@ -17098,7 +12702,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <v>1129</v>
@@ -17136,7 +12740,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <v>35</v>
@@ -17174,7 +12778,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13">
         <v>56</v>
@@ -17212,7 +12816,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14">
         <v>267</v>
@@ -17250,7 +12854,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15">
         <v>-1</v>
@@ -17288,7 +12892,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16">
         <v>561</v>
@@ -17326,7 +12930,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17">
         <v>15</v>
@@ -17364,7 +12968,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18">
         <v>27</v>
@@ -17402,7 +13006,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19">
         <v>116</v>
@@ -17440,7 +13044,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20">
         <v>147</v>
@@ -17478,7 +13082,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B21">
         <v>268</v>
@@ -17516,7 +13120,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="B22">
         <v>119</v>
@@ -17554,7 +13158,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="B23">
         <v>229</v>
@@ -17592,7 +13196,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="B24">
         <v>1604</v>
@@ -17630,7 +13234,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="B25">
         <v>1989</v>
@@ -17668,7 +13272,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="B26">
         <v>3301</v>
@@ -17706,7 +13310,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="B27">
         <v>79</v>
@@ -17744,7 +13348,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="B28">
         <v>115</v>
@@ -17782,7 +13386,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="B29">
         <v>1143</v>
@@ -17820,7 +13424,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="B30">
         <v>1517</v>
@@ -17858,7 +13462,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B31">
         <v>-1</v>
@@ -17896,7 +13500,7 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B32">
         <v>37</v>
@@ -17934,7 +13538,7 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B33">
         <v>46</v>
@@ -17972,7 +13576,7 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B34">
         <v>568</v>
@@ -18010,7 +13614,7 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B35">
         <v>738</v>
@@ -18048,7 +13652,7 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B36">
         <v>1139</v>
@@ -18086,7 +13690,7 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B37">
         <v>18</v>
@@ -18124,7 +13728,7 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B38">
         <v>28</v>
@@ -18162,7 +13766,7 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B39">
         <v>235</v>
@@ -18200,7 +13804,7 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B40">
         <v>318</v>
@@ -18238,7 +13842,7 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B41">
         <v>542</v>
@@ -18276,7 +13880,7 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="B42">
         <v>118</v>
@@ -18314,7 +13918,7 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="B43">
         <v>232</v>
@@ -18352,7 +13956,7 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="B44">
         <v>4226</v>
@@ -18390,7 +13994,7 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="B45">
         <v>5307</v>
@@ -18428,7 +14032,7 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="B46">
         <v>8283</v>
@@ -18466,7 +14070,7 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="B47">
         <v>89</v>
@@ -18504,7 +14108,7 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="B48">
         <v>158</v>
@@ -18542,7 +14146,7 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="B49">
         <v>2802</v>
@@ -18580,7 +14184,7 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="B50">
         <v>3852</v>
@@ -18618,7 +14222,7 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="B51">
         <v>-1</v>
@@ -18656,7 +14260,7 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="B52">
         <v>48</v>
@@ -18694,7 +14298,7 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="B53">
         <v>74</v>
@@ -18732,7 +14336,7 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="B54">
         <v>1403</v>
@@ -18770,7 +14374,7 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="B55">
         <v>1845</v>
@@ -18808,7 +14412,7 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="B56">
         <v>-1</v>
@@ -18846,7 +14450,7 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="B57">
         <v>21</v>
@@ -18884,7 +14488,7 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="B58">
         <v>26</v>
@@ -18922,7 +14526,7 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="B59">
         <v>605</v>
@@ -18960,7 +14564,7 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="B60">
         <v>794</v>
@@ -18998,7 +14602,7 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="B61">
         <v>1369</v>
@@ -19045,11 +14649,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
       <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
@@ -19075,7 +14679,7 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="H1" t="s">
         <v>6</v>
@@ -19095,7 +14699,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="B2">
         <v>98</v>
@@ -19133,7 +14737,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="B3">
         <v>154</v>
@@ -19171,7 +14775,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="B4">
         <v>772</v>
@@ -19209,7 +14813,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="B5">
         <v>1100</v>
@@ -19247,7 +14851,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="B6">
         <v>1592</v>
@@ -19285,7 +14889,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="B7">
         <v>55</v>
@@ -19323,7 +14927,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="B8">
         <v>107</v>
@@ -19361,7 +14965,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="B9">
         <v>533</v>
@@ -19399,7 +15003,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="B10">
         <v>-1</v>
@@ -19437,7 +15041,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <v>-1</v>
@@ -19475,7 +15079,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <v>35</v>
@@ -19513,7 +15117,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13">
         <v>60</v>
@@ -19551,7 +15155,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14">
         <v>284</v>
@@ -19589,7 +15193,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15">
         <v>341</v>
@@ -19627,7 +15231,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16">
         <v>-1</v>
@@ -19665,7 +15269,7 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17">
         <v>17</v>
@@ -19703,7 +15307,7 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18">
         <v>25</v>
@@ -19741,7 +15345,7 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19">
         <v>-1</v>
@@ -19779,7 +15383,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20">
         <v>-1</v>
@@ -19817,7 +15421,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B21">
         <v>268</v>
@@ -19855,7 +15459,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="B22">
         <v>119</v>
@@ -19893,7 +15497,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="B23">
         <v>229</v>
@@ -19931,7 +15535,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="B24">
         <v>1631</v>
@@ -19969,7 +15573,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="B25">
         <v>1987</v>
@@ -20007,7 +15611,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="B26">
         <v>-1</v>
@@ -20045,7 +15649,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="B27">
         <v>79</v>
@@ -20083,7 +15687,7 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="B28">
         <v>115</v>
@@ -20121,7 +15725,7 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="B29">
         <v>1161</v>
@@ -20159,7 +15763,7 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="B30">
         <v>1534</v>
@@ -20197,7 +15801,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B31">
         <v>-1</v>
@@ -20235,7 +15839,7 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B32">
         <v>37</v>
@@ -20273,7 +15877,7 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B33">
         <v>50</v>
@@ -20311,7 +15915,7 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B34">
         <v>558</v>
@@ -20349,7 +15953,7 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B35">
         <v>-1</v>
@@ -20387,7 +15991,7 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B36">
         <v>-1</v>
@@ -20425,7 +16029,7 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B37">
         <v>18</v>
@@ -20463,7 +16067,7 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B38">
         <v>32</v>
@@ -20501,7 +16105,7 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B39">
         <v>234</v>
@@ -20539,7 +16143,7 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B40">
         <v>321</v>
@@ -20577,7 +16181,7 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="B41">
         <v>544</v>
@@ -20615,7 +16219,7 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="B42">
         <v>118</v>
@@ -20653,7 +16257,7 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="B43">
         <v>242</v>
@@ -20691,7 +16295,7 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="B44">
         <v>4194</v>
@@ -20729,7 +16333,7 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="B45">
         <v>5317</v>
@@ -20767,7 +16371,7 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="B46">
         <v>8274</v>
@@ -20805,7 +16409,7 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="B47">
         <v>78</v>
@@ -20843,7 +16447,7 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="B48">
         <v>159</v>
@@ -20881,7 +16485,7 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="B49">
         <v>2815</v>
@@ -20919,7 +16523,7 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="B50">
         <v>3873</v>
@@ -20957,7 +16561,7 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="B51">
         <v>-1</v>
@@ -20995,7 +16599,7 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="B52">
         <v>56</v>
@@ -21033,7 +16637,7 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="B53">
         <v>75</v>
@@ -21071,7 +16675,7 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="B54">
         <v>1429</v>
@@ -21109,7 +16713,7 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="B55">
         <v>-1</v>
@@ -21147,7 +16751,7 @@
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="B56">
         <v>-1</v>
@@ -21185,7 +16789,7 @@
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="B57">
         <v>16</v>
@@ -21223,7 +16827,7 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="B58">
         <v>28</v>
@@ -21261,7 +16865,7 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="B59">
         <v>609</v>
@@ -21299,7 +16903,7 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="B60">
         <v>790</v>
@@ -21337,7 +16941,7 @@
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="B61">
         <v>1368</v>

--- a/Resultados TCP Final.xlsx
+++ b/Resultados TCP Final.xlsx
@@ -4,23 +4,24 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="21075" windowHeight="10050" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="21075" windowHeight="10050"/>
   </bookViews>
   <sheets>
-    <sheet name="D" sheetId="4" r:id="rId1"/>
-    <sheet name="C" sheetId="3" r:id="rId2"/>
-    <sheet name="B" sheetId="2" r:id="rId3"/>
-    <sheet name="A" sheetId="1" r:id="rId4"/>
-    <sheet name="S" sheetId="7" r:id="rId5"/>
-    <sheet name="SS" sheetId="8" r:id="rId6"/>
-    <sheet name="SSS" sheetId="9" r:id="rId7"/>
+    <sheet name="E" sheetId="10" r:id="rId1"/>
+    <sheet name="D" sheetId="4" r:id="rId2"/>
+    <sheet name="C" sheetId="3" r:id="rId3"/>
+    <sheet name="B" sheetId="2" r:id="rId4"/>
+    <sheet name="A" sheetId="1" r:id="rId5"/>
+    <sheet name="S" sheetId="7" r:id="rId6"/>
+    <sheet name="SS" sheetId="8" r:id="rId7"/>
+    <sheet name="SSS" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="93">
   <si>
     <t>instance</t>
   </si>
@@ -236,6 +237,69 @@
   </si>
   <si>
     <t>steine09</t>
+  </si>
+  <si>
+    <t>\\steinb01</t>
+  </si>
+  <si>
+    <t>\\steinb02</t>
+  </si>
+  <si>
+    <t>\\steinb03</t>
+  </si>
+  <si>
+    <t>\\steinb04</t>
+  </si>
+  <si>
+    <t>\\steinb05</t>
+  </si>
+  <si>
+    <t>\\steinb06</t>
+  </si>
+  <si>
+    <t>\\steinb07</t>
+  </si>
+  <si>
+    <t>\\steinb08</t>
+  </si>
+  <si>
+    <t>\\steinb09</t>
+  </si>
+  <si>
+    <t>\\steinb10</t>
+  </si>
+  <si>
+    <t>\\steinb11</t>
+  </si>
+  <si>
+    <t>\\steinb12</t>
+  </si>
+  <si>
+    <t>\\steinb13</t>
+  </si>
+  <si>
+    <t>\\steinb14</t>
+  </si>
+  <si>
+    <t>\\steinb15</t>
+  </si>
+  <si>
+    <t>\\steinb16</t>
+  </si>
+  <si>
+    <t>\\steinb17</t>
+  </si>
+  <si>
+    <t>\\steinb18</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>r</t>
   </si>
 </sst>
 </file>
@@ -575,6 +639,756 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2">
+        <v>83</v>
+      </c>
+      <c r="C2">
+        <v>83</v>
+      </c>
+      <c r="D2">
+        <v>83</v>
+      </c>
+      <c r="E2">
+        <v>83</v>
+      </c>
+      <c r="F2">
+        <v>163.80000000000001</v>
+      </c>
+      <c r="G2">
+        <v>91.7</v>
+      </c>
+      <c r="H2">
+        <v>7</v>
+      </c>
+      <c r="I2">
+        <v>7</v>
+      </c>
+      <c r="J2">
+        <v>2</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+      <c r="L2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3">
+        <v>83</v>
+      </c>
+      <c r="C3">
+        <v>83</v>
+      </c>
+      <c r="D3">
+        <v>83</v>
+      </c>
+      <c r="E3">
+        <v>83</v>
+      </c>
+      <c r="F3">
+        <v>124.5</v>
+      </c>
+      <c r="G3">
+        <v>14.6</v>
+      </c>
+      <c r="H3">
+        <v>7</v>
+      </c>
+      <c r="I3">
+        <v>7</v>
+      </c>
+      <c r="J3">
+        <v>3</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4">
+        <v>138</v>
+      </c>
+      <c r="C4">
+        <v>138</v>
+      </c>
+      <c r="D4">
+        <v>138</v>
+      </c>
+      <c r="E4">
+        <v>138</v>
+      </c>
+      <c r="F4">
+        <v>218.7</v>
+      </c>
+      <c r="G4" s="1">
+        <v>95.9</v>
+      </c>
+      <c r="H4">
+        <v>8</v>
+      </c>
+      <c r="I4">
+        <v>8</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5">
+        <v>59</v>
+      </c>
+      <c r="C5">
+        <v>59</v>
+      </c>
+      <c r="D5">
+        <v>59</v>
+      </c>
+      <c r="E5">
+        <v>59</v>
+      </c>
+      <c r="F5">
+        <v>129.30000000000001</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>7</v>
+      </c>
+      <c r="I5">
+        <v>7</v>
+      </c>
+      <c r="J5">
+        <v>3</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6">
+        <v>61</v>
+      </c>
+      <c r="C6">
+        <v>61</v>
+      </c>
+      <c r="D6">
+        <v>61</v>
+      </c>
+      <c r="E6">
+        <v>61</v>
+      </c>
+      <c r="F6">
+        <v>253.5</v>
+      </c>
+      <c r="G6">
+        <v>128.19999999999999</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6">
+        <v>6</v>
+      </c>
+      <c r="J6">
+        <v>4</v>
+      </c>
+      <c r="K6">
+        <v>4</v>
+      </c>
+      <c r="L6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7">
+        <v>125</v>
+      </c>
+      <c r="C7">
+        <v>125</v>
+      </c>
+      <c r="D7">
+        <v>125</v>
+      </c>
+      <c r="E7">
+        <v>125</v>
+      </c>
+      <c r="F7">
+        <v>330.5</v>
+      </c>
+      <c r="G7">
+        <v>191.1</v>
+      </c>
+      <c r="H7" s="1">
+        <v>7</v>
+      </c>
+      <c r="I7">
+        <v>7</v>
+      </c>
+      <c r="J7">
+        <v>5</v>
+      </c>
+      <c r="K7">
+        <v>5</v>
+      </c>
+      <c r="L7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8">
+        <v>111</v>
+      </c>
+      <c r="C8">
+        <v>112</v>
+      </c>
+      <c r="D8">
+        <v>111.1</v>
+      </c>
+      <c r="E8">
+        <v>111</v>
+      </c>
+      <c r="F8">
+        <v>237.5</v>
+      </c>
+      <c r="G8">
+        <v>100.6</v>
+      </c>
+      <c r="H8">
+        <v>7</v>
+      </c>
+      <c r="I8">
+        <v>7</v>
+      </c>
+      <c r="J8">
+        <v>5</v>
+      </c>
+      <c r="K8">
+        <v>6</v>
+      </c>
+      <c r="L8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9">
+        <v>107</v>
+      </c>
+      <c r="C9">
+        <v>107</v>
+      </c>
+      <c r="D9">
+        <v>107</v>
+      </c>
+      <c r="E9">
+        <v>107</v>
+      </c>
+      <c r="F9">
+        <v>140.9</v>
+      </c>
+      <c r="G9" s="1">
+        <v>14.1</v>
+      </c>
+      <c r="H9">
+        <v>8</v>
+      </c>
+      <c r="I9">
+        <v>8</v>
+      </c>
+      <c r="J9">
+        <v>4</v>
+      </c>
+      <c r="K9">
+        <v>4</v>
+      </c>
+      <c r="L9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10">
+        <v>221</v>
+      </c>
+      <c r="C10">
+        <v>221</v>
+      </c>
+      <c r="D10">
+        <v>221</v>
+      </c>
+      <c r="E10">
+        <v>221</v>
+      </c>
+      <c r="F10">
+        <v>165.6</v>
+      </c>
+      <c r="G10">
+        <v>0.5</v>
+      </c>
+      <c r="H10">
+        <v>9</v>
+      </c>
+      <c r="I10">
+        <v>10</v>
+      </c>
+      <c r="J10">
+        <v>4</v>
+      </c>
+      <c r="K10">
+        <v>4</v>
+      </c>
+      <c r="L10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11">
+        <v>88</v>
+      </c>
+      <c r="C11">
+        <v>88</v>
+      </c>
+      <c r="D11">
+        <v>88</v>
+      </c>
+      <c r="E11">
+        <v>88</v>
+      </c>
+      <c r="F11">
+        <v>342.2</v>
+      </c>
+      <c r="G11">
+        <v>159.6</v>
+      </c>
+      <c r="H11">
+        <v>5</v>
+      </c>
+      <c r="I11">
+        <v>5</v>
+      </c>
+      <c r="J11">
+        <v>7</v>
+      </c>
+      <c r="K11">
+        <v>7</v>
+      </c>
+      <c r="L11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12">
+        <v>88</v>
+      </c>
+      <c r="C12">
+        <v>88</v>
+      </c>
+      <c r="D12">
+        <v>88</v>
+      </c>
+      <c r="E12">
+        <v>88</v>
+      </c>
+      <c r="F12">
+        <v>380.7</v>
+      </c>
+      <c r="G12">
+        <v>194.9</v>
+      </c>
+      <c r="H12">
+        <v>3</v>
+      </c>
+      <c r="I12">
+        <v>4</v>
+      </c>
+      <c r="J12">
+        <v>4</v>
+      </c>
+      <c r="K12">
+        <v>4</v>
+      </c>
+      <c r="L12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13">
+        <v>174</v>
+      </c>
+      <c r="C13">
+        <v>176</v>
+      </c>
+      <c r="D13">
+        <v>174.9</v>
+      </c>
+      <c r="E13">
+        <v>175</v>
+      </c>
+      <c r="F13">
+        <v>513</v>
+      </c>
+      <c r="G13">
+        <v>327.10000000000002</v>
+      </c>
+      <c r="H13">
+        <v>9</v>
+      </c>
+      <c r="I13">
+        <v>11</v>
+      </c>
+      <c r="J13">
+        <v>2</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14">
+        <v>173</v>
+      </c>
+      <c r="C14">
+        <v>174</v>
+      </c>
+      <c r="D14">
+        <v>173.9</v>
+      </c>
+      <c r="E14">
+        <v>174</v>
+      </c>
+      <c r="F14">
+        <v>261.5</v>
+      </c>
+      <c r="G14">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="H14">
+        <v>14</v>
+      </c>
+      <c r="I14">
+        <v>17</v>
+      </c>
+      <c r="J14">
+        <v>5</v>
+      </c>
+      <c r="K14">
+        <v>5</v>
+      </c>
+      <c r="L14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15">
+        <v>239</v>
+      </c>
+      <c r="C15">
+        <v>239</v>
+      </c>
+      <c r="D15">
+        <v>239</v>
+      </c>
+      <c r="E15">
+        <v>239</v>
+      </c>
+      <c r="F15">
+        <v>490.7</v>
+      </c>
+      <c r="G15">
+        <v>261.8</v>
+      </c>
+      <c r="H15">
+        <v>13</v>
+      </c>
+      <c r="I15">
+        <v>15</v>
+      </c>
+      <c r="J15">
+        <v>11</v>
+      </c>
+      <c r="K15">
+        <v>11</v>
+      </c>
+      <c r="L15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16">
+        <v>325</v>
+      </c>
+      <c r="C16">
+        <v>328</v>
+      </c>
+      <c r="D16">
+        <v>325.75</v>
+      </c>
+      <c r="E16">
+        <v>325</v>
+      </c>
+      <c r="F16">
+        <v>688.5</v>
+      </c>
+      <c r="G16">
+        <v>417.75</v>
+      </c>
+      <c r="H16">
+        <v>12</v>
+      </c>
+      <c r="I16">
+        <v>14</v>
+      </c>
+      <c r="J16">
+        <v>6</v>
+      </c>
+      <c r="K16">
+        <v>6</v>
+      </c>
+      <c r="L16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>87</v>
+      </c>
+      <c r="B17">
+        <v>127</v>
+      </c>
+      <c r="C17">
+        <v>130</v>
+      </c>
+      <c r="D17">
+        <v>128.5</v>
+      </c>
+      <c r="E17">
+        <v>128.5</v>
+      </c>
+      <c r="F17">
+        <v>518.1</v>
+      </c>
+      <c r="G17">
+        <v>279.2</v>
+      </c>
+      <c r="H17">
+        <v>10</v>
+      </c>
+      <c r="I17">
+        <v>16</v>
+      </c>
+      <c r="J17">
+        <v>2</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18">
+        <v>132</v>
+      </c>
+      <c r="C18">
+        <v>142</v>
+      </c>
+      <c r="D18">
+        <v>133.4</v>
+      </c>
+      <c r="E18">
+        <v>132</v>
+      </c>
+      <c r="F18">
+        <v>545.4</v>
+      </c>
+      <c r="G18">
+        <v>418.4</v>
+      </c>
+      <c r="H18">
+        <v>8</v>
+      </c>
+      <c r="I18">
+        <v>11</v>
+      </c>
+      <c r="J18">
+        <v>6</v>
+      </c>
+      <c r="K18">
+        <v>8</v>
+      </c>
+      <c r="L18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19">
+        <v>218</v>
+      </c>
+      <c r="C19">
+        <v>219</v>
+      </c>
+      <c r="D19">
+        <v>218.9</v>
+      </c>
+      <c r="E19">
+        <v>219</v>
+      </c>
+      <c r="F19">
+        <v>514</v>
+      </c>
+      <c r="G19">
+        <v>268.89999999999998</v>
+      </c>
+      <c r="H19">
+        <v>10</v>
+      </c>
+      <c r="I19">
+        <v>10</v>
+      </c>
+      <c r="J19">
+        <v>8</v>
+      </c>
+      <c r="K19">
+        <v>8</v>
+      </c>
+      <c r="L19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <f>AVERAGE(F2:F19)</f>
+        <v>334.35555555555555</v>
+      </c>
+      <c r="G20">
+        <f>AVERAGE(G2:G19)</f>
+        <v>168.65277777777777</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L62"/>
   <sheetViews>
     <sheetView topLeftCell="A49" workbookViewId="0">
@@ -2916,7 +3730,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L62"/>
   <sheetViews>
@@ -5263,7 +6077,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L62"/>
   <sheetViews>
@@ -7610,7 +8424,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L62"/>
   <sheetViews>
@@ -9960,7 +10774,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L62"/>
   <sheetViews>
@@ -12310,7 +13124,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L62"/>
   <sheetViews>
@@ -14649,11 +15463,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
